--- a/水泥.excel/1109/1109(102.1~105.4)4.xlsx
+++ b/水泥.excel/1109/1109(102.1~105.4)4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>金額_x</t>
   </si>
@@ -115,1300 +115,109 @@
     <t>停業單位損益合計</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>備供出售金融資產未實現評價損益</t>
   </si>
   <si>
-    <t>-5,284</t>
-  </si>
-  <si>
-    <t>-8,767</t>
-  </si>
-  <si>
-    <t>5,383</t>
-  </si>
-  <si>
-    <t>1,845</t>
-  </si>
-  <si>
-    <t>778</t>
-  </si>
-  <si>
-    <t>-13,582</t>
-  </si>
-  <si>
-    <t>7,561</t>
-  </si>
-  <si>
-    <t>-13,885</t>
-  </si>
-  <si>
-    <t>-501</t>
-  </si>
-  <si>
-    <t>-9,713</t>
-  </si>
-  <si>
-    <t>-1,876</t>
-  </si>
-  <si>
-    <t>-15,246</t>
-  </si>
-  <si>
-    <t>9,118</t>
-  </si>
-  <si>
-    <t>-13,278</t>
-  </si>
-  <si>
-    <t>26,253</t>
-  </si>
-  <si>
-    <t>30,869</t>
-  </si>
-  <si>
     <t>其他利益及損失淨額</t>
   </si>
   <si>
-    <t>10,995</t>
-  </si>
-  <si>
-    <t>26,923</t>
-  </si>
-  <si>
-    <t>6,257</t>
-  </si>
-  <si>
-    <t>56,577</t>
-  </si>
-  <si>
-    <t>-3,570</t>
-  </si>
-  <si>
-    <t>-5,267</t>
-  </si>
-  <si>
-    <t>7,811</t>
-  </si>
-  <si>
-    <t>-9,803</t>
-  </si>
-  <si>
-    <t>-9,071</t>
-  </si>
-  <si>
-    <t>1,513</t>
-  </si>
-  <si>
-    <t>-42,099</t>
-  </si>
-  <si>
-    <t>-48,496</t>
-  </si>
-  <si>
-    <t>1,086</t>
-  </si>
-  <si>
-    <t>-31,021</t>
-  </si>
-  <si>
-    <t>-23,768</t>
-  </si>
-  <si>
-    <t>-94,142</t>
-  </si>
-  <si>
     <t>其他收入</t>
   </si>
   <si>
-    <t>6,646</t>
-  </si>
-  <si>
-    <t>4,866</t>
-  </si>
-  <si>
-    <t>7,652</t>
-  </si>
-  <si>
-    <t>29,505</t>
-  </si>
-  <si>
-    <t>8,916</t>
-  </si>
-  <si>
-    <t>11,686</t>
-  </si>
-  <si>
-    <t>8,366</t>
-  </si>
-  <si>
-    <t>41,973</t>
-  </si>
-  <si>
-    <t>3,474</t>
-  </si>
-  <si>
-    <t>7,437</t>
-  </si>
-  <si>
-    <t>8,738</t>
-  </si>
-  <si>
-    <t>27,575</t>
-  </si>
-  <si>
-    <t>5,711</t>
-  </si>
-  <si>
-    <t>6,710</t>
-  </si>
-  <si>
-    <t>19,058</t>
-  </si>
-  <si>
-    <t>37,541</t>
-  </si>
-  <si>
     <t>其他收益及費損淨額</t>
   </si>
   <si>
     <t>其他綜合損益（淨額）</t>
   </si>
   <si>
-    <t>47,548</t>
-  </si>
-  <si>
-    <t>31,459</t>
-  </si>
-  <si>
-    <t>-20,650</t>
-  </si>
-  <si>
-    <t>101,176</t>
-  </si>
-  <si>
-    <t>-10,317</t>
-  </si>
-  <si>
-    <t>-60,390</t>
-  </si>
-  <si>
-    <t>74,358</t>
-  </si>
-  <si>
-    <t>74,194</t>
-  </si>
-  <si>
-    <t>-26,012</t>
-  </si>
-  <si>
-    <t>-45,984</t>
-  </si>
-  <si>
-    <t>98,238</t>
-  </si>
-  <si>
-    <t>-72,042</t>
-  </si>
-  <si>
-    <t>-923</t>
-  </si>
-  <si>
-    <t>-74,365</t>
-  </si>
-  <si>
-    <t>-46,898</t>
-  </si>
-  <si>
-    <t>-160,998</t>
-  </si>
-  <si>
     <t>國外營運機構財務報表換算之兌換差額</t>
   </si>
   <si>
-    <t>52,832</t>
-  </si>
-  <si>
-    <t>38,731</t>
-  </si>
-  <si>
-    <t>-25,999</t>
-  </si>
-  <si>
-    <t>134,350</t>
-  </si>
-  <si>
-    <t>-10,439</t>
-  </si>
-  <si>
-    <t>-46,863</t>
-  </si>
-  <si>
-    <t>66,281</t>
-  </si>
-  <si>
-    <t>92,415</t>
-  </si>
-  <si>
-    <t>-25,622</t>
-  </si>
-  <si>
-    <t>-36,532</t>
-  </si>
-  <si>
-    <t>99,681</t>
-  </si>
-  <si>
-    <t>-49,429</t>
-  </si>
-  <si>
-    <t>-10,053</t>
-  </si>
-  <si>
-    <t>-60,844</t>
-  </si>
-  <si>
-    <t>-72,882</t>
-  </si>
-  <si>
-    <t>-183,555</t>
-  </si>
-  <si>
     <t>基本每股盈餘</t>
   </si>
   <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.03</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.17</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
     <t>已實現銷貨（損）益</t>
   </si>
   <si>
     <t>所得稅費用（利益）合計</t>
   </si>
   <si>
-    <t>8,544</t>
-  </si>
-  <si>
-    <t>9,337</t>
-  </si>
-  <si>
-    <t>6,022</t>
-  </si>
-  <si>
-    <t>48,325</t>
-  </si>
-  <si>
-    <t>28,994</t>
-  </si>
-  <si>
-    <t>51,681</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>90,056</t>
-  </si>
-  <si>
-    <t>6,327</t>
-  </si>
-  <si>
-    <t>28,323</t>
-  </si>
-  <si>
-    <t>12,483</t>
-  </si>
-  <si>
-    <t>68,462</t>
-  </si>
-  <si>
-    <t>6,626</t>
-  </si>
-  <si>
-    <t>8,472</t>
-  </si>
-  <si>
-    <t>7,170</t>
-  </si>
-  <si>
-    <t>31,706</t>
-  </si>
-  <si>
     <t>採用權益法認列之關聯企業及合資損益之份額淨額</t>
   </si>
   <si>
-    <t>-370</t>
-  </si>
-  <si>
-    <t>-1,012</t>
-  </si>
-  <si>
-    <t>-220</t>
-  </si>
-  <si>
-    <t>-216</t>
-  </si>
-  <si>
-    <t>-205</t>
-  </si>
-  <si>
-    <t>-916</t>
-  </si>
-  <si>
-    <t>-96</t>
-  </si>
-  <si>
-    <t>-178</t>
-  </si>
-  <si>
-    <t>-267</t>
-  </si>
-  <si>
-    <t>-667</t>
-  </si>
-  <si>
     <t>推銷費用</t>
   </si>
   <si>
-    <t>51,310</t>
-  </si>
-  <si>
-    <t>79,363</t>
-  </si>
-  <si>
-    <t>47,038</t>
-  </si>
-  <si>
-    <t>292,224</t>
-  </si>
-  <si>
-    <t>51,308</t>
-  </si>
-  <si>
-    <t>63,785</t>
-  </si>
-  <si>
-    <t>56,382</t>
-  </si>
-  <si>
-    <t>227,098</t>
-  </si>
-  <si>
-    <t>41,888</t>
-  </si>
-  <si>
-    <t>43,834</t>
-  </si>
-  <si>
-    <t>48,522</t>
-  </si>
-  <si>
-    <t>178,586</t>
-  </si>
-  <si>
-    <t>41,576</t>
-  </si>
-  <si>
-    <t>43,917</t>
-  </si>
-  <si>
-    <t>37,141</t>
-  </si>
-  <si>
-    <t>162,557</t>
-  </si>
-  <si>
     <t>未實現銷貨（損）益</t>
   </si>
   <si>
     <t>本期淨利（淨損）</t>
   </si>
   <si>
-    <t>35,090</t>
-  </si>
-  <si>
-    <t>71,699</t>
-  </si>
-  <si>
-    <t>14,151</t>
-  </si>
-  <si>
-    <t>322,700</t>
-  </si>
-  <si>
-    <t>107,003</t>
-  </si>
-  <si>
-    <t>145,231</t>
-  </si>
-  <si>
-    <t>23,008</t>
-  </si>
-  <si>
-    <t>336,764</t>
-  </si>
-  <si>
-    <t>1,507</t>
-  </si>
-  <si>
-    <t>-30,732</t>
-  </si>
-  <si>
-    <t>-72,270</t>
-  </si>
-  <si>
-    <t>-57,407</t>
-  </si>
-  <si>
-    <t>-33,204</t>
-  </si>
-  <si>
-    <t>77,164</t>
-  </si>
-  <si>
-    <t>32,507</t>
-  </si>
-  <si>
-    <t>177,671</t>
-  </si>
-  <si>
     <t>本期綜合損益總額</t>
   </si>
   <si>
-    <t>82,638</t>
-  </si>
-  <si>
-    <t>103,158</t>
-  </si>
-  <si>
-    <t>-6,499</t>
-  </si>
-  <si>
-    <t>423,876</t>
-  </si>
-  <si>
-    <t>96,686</t>
-  </si>
-  <si>
-    <t>84,841</t>
-  </si>
-  <si>
-    <t>97,366</t>
-  </si>
-  <si>
-    <t>410,958</t>
-  </si>
-  <si>
-    <t>-24,505</t>
-  </si>
-  <si>
-    <t>-76,716</t>
-  </si>
-  <si>
-    <t>25,968</t>
-  </si>
-  <si>
-    <t>-129,449</t>
-  </si>
-  <si>
-    <t>-34,127</t>
-  </si>
-  <si>
-    <t>2,799</t>
-  </si>
-  <si>
-    <t>-14,391</t>
-  </si>
-  <si>
-    <t>16,673</t>
-  </si>
-  <si>
     <t>母公司業主（淨利／損）</t>
   </si>
   <si>
-    <t>37,666</t>
-  </si>
-  <si>
-    <t>68,919</t>
-  </si>
-  <si>
-    <t>21,072</t>
-  </si>
-  <si>
-    <t>274,532</t>
-  </si>
-  <si>
-    <t>85,720</t>
-  </si>
-  <si>
-    <t>111,497</t>
-  </si>
-  <si>
-    <t>33,449</t>
-  </si>
-  <si>
-    <t>283,540</t>
-  </si>
-  <si>
-    <t>10,502</t>
-  </si>
-  <si>
-    <t>-14,026</t>
-  </si>
-  <si>
-    <t>-32,430</t>
-  </si>
-  <si>
-    <t>17,977</t>
-  </si>
-  <si>
-    <t>-11,582</t>
-  </si>
-  <si>
-    <t>64,650</t>
-  </si>
-  <si>
-    <t>30,526</t>
-  </si>
-  <si>
-    <t>161,017</t>
-  </si>
-  <si>
     <t>母公司業主（綜合損益）</t>
   </si>
   <si>
-    <t>85,214</t>
-  </si>
-  <si>
-    <t>87,470</t>
-  </si>
-  <si>
-    <t>9,088</t>
-  </si>
-  <si>
-    <t>330,324</t>
-  </si>
-  <si>
-    <t>78,882</t>
-  </si>
-  <si>
-    <t>66,727</t>
-  </si>
-  <si>
-    <t>85,716</t>
-  </si>
-  <si>
-    <t>326,958</t>
-  </si>
-  <si>
-    <t>-6,970</t>
-  </si>
-  <si>
-    <t>-47,834</t>
-  </si>
-  <si>
-    <t>32,584</t>
-  </si>
-  <si>
-    <t>-38,346</t>
-  </si>
-  <si>
-    <t>-9,154</t>
-  </si>
-  <si>
-    <t>10,564</t>
-  </si>
-  <si>
-    <t>7,920</t>
-  </si>
-  <si>
-    <t>61,653</t>
-  </si>
-  <si>
     <t>營業利益（損失）</t>
   </si>
   <si>
-    <t>35,919</t>
-  </si>
-  <si>
-    <t>56,667</t>
-  </si>
-  <si>
-    <t>14,575</t>
-  </si>
-  <si>
-    <t>322,866</t>
-  </si>
-  <si>
-    <t>141,243</t>
-  </si>
-  <si>
-    <t>202,994</t>
-  </si>
-  <si>
-    <t>15,883</t>
-  </si>
-  <si>
-    <t>433,979</t>
-  </si>
-  <si>
-    <t>20,166</t>
-  </si>
-  <si>
-    <t>-5,833</t>
-  </si>
-  <si>
-    <t>-20,464</t>
-  </si>
-  <si>
-    <t>57,798</t>
-  </si>
-  <si>
-    <t>-26,416</t>
-  </si>
-  <si>
-    <t>117,288</t>
-  </si>
-  <si>
-    <t>51,964</t>
-  </si>
-  <si>
-    <t>296,695</t>
-  </si>
-  <si>
     <t>營業外收入及支出合計</t>
   </si>
   <si>
-    <t>7,715</t>
-  </si>
-  <si>
-    <t>24,369</t>
-  </si>
-  <si>
-    <t>5,598</t>
-  </si>
-  <si>
-    <t>48,159</t>
-  </si>
-  <si>
-    <t>-5,246</t>
-  </si>
-  <si>
-    <t>-6,082</t>
-  </si>
-  <si>
-    <t>7,823</t>
-  </si>
-  <si>
-    <t>-7,159</t>
-  </si>
-  <si>
-    <t>-12,332</t>
-  </si>
-  <si>
-    <t>3,424</t>
-  </si>
-  <si>
-    <t>-39,323</t>
-  </si>
-  <si>
-    <t>-46,743</t>
-  </si>
-  <si>
-    <t>-162</t>
-  </si>
-  <si>
-    <t>-31,652</t>
-  </si>
-  <si>
-    <t>-12,287</t>
-  </si>
-  <si>
-    <t>-87,318</t>
-  </si>
-  <si>
     <t>營業成本合計</t>
   </si>
   <si>
-    <t>789,963</t>
-  </si>
-  <si>
-    <t>830,137</t>
-  </si>
-  <si>
-    <t>881,793</t>
-  </si>
-  <si>
-    <t>3,746,125</t>
-  </si>
-  <si>
-    <t>932,059</t>
-  </si>
-  <si>
-    <t>1,151,011</t>
-  </si>
-  <si>
-    <t>810,630</t>
-  </si>
-  <si>
-    <t>4,055,891</t>
-  </si>
-  <si>
-    <t>836,497</t>
-  </si>
-  <si>
-    <t>1,010,507</t>
-  </si>
-  <si>
-    <t>1,070,819</t>
-  </si>
-  <si>
-    <t>3,911,089</t>
-  </si>
-  <si>
-    <t>807,187</t>
-  </si>
-  <si>
-    <t>924,153</t>
-  </si>
-  <si>
-    <t>883,120</t>
-  </si>
-  <si>
-    <t>3,685,954</t>
-  </si>
-  <si>
     <t>營業收入合計</t>
   </si>
   <si>
-    <t>916,242</t>
-  </si>
-  <si>
-    <t>1,010,171</t>
-  </si>
-  <si>
-    <t>985,555</t>
-  </si>
-  <si>
-    <t>4,551,240</t>
-  </si>
-  <si>
-    <t>1,192,024</t>
-  </si>
-  <si>
-    <t>1,493,124</t>
-  </si>
-  <si>
-    <t>944,057</t>
-  </si>
-  <si>
-    <t>5,000,089</t>
-  </si>
-  <si>
-    <t>951,789</t>
-  </si>
-  <si>
-    <t>1,100,452</t>
-  </si>
-  <si>
-    <t>1,152,722</t>
-  </si>
-  <si>
-    <t>4,350,645</t>
-  </si>
-  <si>
-    <t>875,999</t>
-  </si>
-  <si>
-    <t>1,130,525</t>
-  </si>
-  <si>
-    <t>1,019,178</t>
-  </si>
-  <si>
-    <t>4,346,147</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）</t>
   </si>
   <si>
-    <t>126,279</t>
-  </si>
-  <si>
-    <t>180,034</t>
-  </si>
-  <si>
-    <t>103,762</t>
-  </si>
-  <si>
-    <t>805,115</t>
-  </si>
-  <si>
-    <t>259,965</t>
-  </si>
-  <si>
-    <t>342,113</t>
-  </si>
-  <si>
-    <t>133,427</t>
-  </si>
-  <si>
-    <t>944,198</t>
-  </si>
-  <si>
-    <t>115,292</t>
-  </si>
-  <si>
-    <t>89,945</t>
-  </si>
-  <si>
-    <t>81,903</t>
-  </si>
-  <si>
-    <t>439,556</t>
-  </si>
-  <si>
-    <t>68,812</t>
-  </si>
-  <si>
-    <t>206,372</t>
-  </si>
-  <si>
-    <t>136,058</t>
-  </si>
-  <si>
-    <t>660,193</t>
-  </si>
-  <si>
     <t>營業毛利（毛損）淨額</t>
   </si>
   <si>
     <t>營業費用合計</t>
   </si>
   <si>
-    <t>90,360</t>
-  </si>
-  <si>
-    <t>123,367</t>
-  </si>
-  <si>
-    <t>89,187</t>
-  </si>
-  <si>
-    <t>482,249</t>
-  </si>
-  <si>
-    <t>118,722</t>
-  </si>
-  <si>
-    <t>139,119</t>
-  </si>
-  <si>
-    <t>117,544</t>
-  </si>
-  <si>
-    <t>510,219</t>
-  </si>
-  <si>
-    <t>95,126</t>
-  </si>
-  <si>
-    <t>95,778</t>
-  </si>
-  <si>
-    <t>102,367</t>
-  </si>
-  <si>
-    <t>381,758</t>
-  </si>
-  <si>
-    <t>95,228</t>
-  </si>
-  <si>
-    <t>89,084</t>
-  </si>
-  <si>
-    <t>84,094</t>
-  </si>
-  <si>
-    <t>363,498</t>
-  </si>
-  <si>
     <t>確定福利計畫之再衡量數</t>
   </si>
   <si>
-    <t>-42,341</t>
-  </si>
-  <si>
-    <t>-5,330</t>
-  </si>
-  <si>
-    <t>-9,869</t>
-  </si>
-  <si>
-    <t>-9,191</t>
-  </si>
-  <si>
     <t>稀釋每股盈餘</t>
   </si>
   <si>
     <t>稅前淨利（淨損）</t>
   </si>
   <si>
-    <t>43,634</t>
-  </si>
-  <si>
-    <t>81,036</t>
-  </si>
-  <si>
-    <t>20,173</t>
-  </si>
-  <si>
-    <t>371,025</t>
-  </si>
-  <si>
-    <t>135,997</t>
-  </si>
-  <si>
-    <t>196,912</t>
-  </si>
-  <si>
-    <t>23,706</t>
-  </si>
-  <si>
-    <t>426,820</t>
-  </si>
-  <si>
-    <t>7,834</t>
-  </si>
-  <si>
-    <t>-2,409</t>
-  </si>
-  <si>
-    <t>-59,787</t>
-  </si>
-  <si>
-    <t>11,055</t>
-  </si>
-  <si>
-    <t>-26,578</t>
-  </si>
-  <si>
-    <t>85,636</t>
-  </si>
-  <si>
-    <t>39,677</t>
-  </si>
-  <si>
-    <t>209,377</t>
-  </si>
-  <si>
     <t>管理費用</t>
   </si>
   <si>
-    <t>39,050</t>
-  </si>
-  <si>
-    <t>44,004</t>
-  </si>
-  <si>
-    <t>42,149</t>
-  </si>
-  <si>
-    <t>190,025</t>
-  </si>
-  <si>
-    <t>67,414</t>
-  </si>
-  <si>
-    <t>75,334</t>
-  </si>
-  <si>
-    <t>61,162</t>
-  </si>
-  <si>
-    <t>283,121</t>
-  </si>
-  <si>
-    <t>53,238</t>
-  </si>
-  <si>
-    <t>51,944</t>
-  </si>
-  <si>
-    <t>53,845</t>
-  </si>
-  <si>
-    <t>203,172</t>
-  </si>
-  <si>
-    <t>53,652</t>
-  </si>
-  <si>
-    <t>45,167</t>
-  </si>
-  <si>
-    <t>46,953</t>
-  </si>
-  <si>
-    <t>200,941</t>
-  </si>
-  <si>
     <t>繼續營業單位本期淨利（淨損）</t>
   </si>
   <si>
     <t>與不重分類之項目相關之所得稅</t>
   </si>
   <si>
-    <t>-1,677</t>
-  </si>
-  <si>
-    <t>-1,563</t>
-  </si>
-  <si>
     <t>與其他綜合損益組成部分相關之所得稅</t>
   </si>
   <si>
-    <t>-1,495</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>-7,322</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>-55</t>
-  </si>
-  <si>
-    <t>-516</t>
-  </si>
-  <si>
-    <t>-994</t>
-  </si>
-  <si>
     <t>與可能重分類之項目相關之所得稅</t>
   </si>
   <si>
-    <t>-111</t>
-  </si>
-  <si>
-    <t>-261</t>
-  </si>
-  <si>
-    <t>-433</t>
-  </si>
-  <si>
-    <t>-825</t>
-  </si>
-  <si>
-    <t>-12</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
     <t>財務成本淨額</t>
   </si>
   <si>
-    <t>9,926</t>
-  </si>
-  <si>
-    <t>7,420</t>
-  </si>
-  <si>
-    <t>8,311</t>
-  </si>
-  <si>
-    <t>37,923</t>
-  </si>
-  <si>
-    <t>10,592</t>
-  </si>
-  <si>
-    <t>12,501</t>
-  </si>
-  <si>
-    <t>7,984</t>
-  </si>
-  <si>
-    <t>38,317</t>
-  </si>
-  <si>
-    <t>6,515</t>
-  </si>
-  <si>
-    <t>5,310</t>
-  </si>
-  <si>
-    <t>5,757</t>
-  </si>
-  <si>
-    <t>24,906</t>
-  </si>
-  <si>
-    <t>6,863</t>
-  </si>
-  <si>
-    <t>7,163</t>
-  </si>
-  <si>
-    <t>7,310</t>
-  </si>
-  <si>
-    <t>30,050</t>
-  </si>
-  <si>
     <t>銷貨收入淨額</t>
   </si>
   <si>
     <t>非控制權益（淨利／損）</t>
   </si>
   <si>
-    <t>-2,576</t>
-  </si>
-  <si>
-    <t>2,780</t>
-  </si>
-  <si>
-    <t>-6,921</t>
-  </si>
-  <si>
-    <t>48,168</t>
-  </si>
-  <si>
-    <t>21,283</t>
-  </si>
-  <si>
-    <t>33,734</t>
-  </si>
-  <si>
-    <t>-10,441</t>
-  </si>
-  <si>
-    <t>53,224</t>
-  </si>
-  <si>
-    <t>-8,995</t>
-  </si>
-  <si>
-    <t>-16,706</t>
-  </si>
-  <si>
-    <t>-39,840</t>
-  </si>
-  <si>
-    <t>-75,384</t>
-  </si>
-  <si>
-    <t>-21,622</t>
-  </si>
-  <si>
-    <t>12,514</t>
-  </si>
-  <si>
-    <t>1,981</t>
-  </si>
-  <si>
-    <t>16,654</t>
-  </si>
-  <si>
     <t>非控制權益（綜合損益）</t>
-  </si>
-  <si>
-    <t>15,688</t>
-  </si>
-  <si>
-    <t>-15,587</t>
-  </si>
-  <si>
-    <t>93,552</t>
-  </si>
-  <si>
-    <t>17,804</t>
-  </si>
-  <si>
-    <t>18,114</t>
-  </si>
-  <si>
-    <t>11,650</t>
-  </si>
-  <si>
-    <t>84,000</t>
-  </si>
-  <si>
-    <t>-17,535</t>
-  </si>
-  <si>
-    <t>-28,882</t>
-  </si>
-  <si>
-    <t>-6,616</t>
-  </si>
-  <si>
-    <t>-91,103</t>
-  </si>
-  <si>
-    <t>-24,973</t>
-  </si>
-  <si>
-    <t>-7,765</t>
-  </si>
-  <si>
-    <t>-22,311</t>
-  </si>
-  <si>
-    <t>-44,980</t>
   </si>
 </sst>
 </file>
@@ -1867,8 +676,8 @@
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
-        <v>33</v>
+      <c r="B2" t="n">
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1877,34 +686,34 @@
       <c r="E2" t="s"/>
       <c r="F2" t="s"/>
       <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>33</v>
+      <c r="H2" t="n">
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="s">
-        <v>33</v>
+      <c r="J2" t="n">
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="s"/>
       <c r="M2" t="s"/>
-      <c r="N2" t="s">
-        <v>33</v>
+      <c r="N2" t="n">
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
-        <v>33</v>
+      <c r="P2" t="n">
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="s">
-        <v>33</v>
+      <c r="R2" t="n">
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1913,14 +722,14 @@
       <c r="U2" t="s"/>
       <c r="V2" t="s"/>
       <c r="W2" t="s"/>
-      <c r="X2" t="s">
-        <v>33</v>
+      <c r="X2" t="n">
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" t="s">
-        <v>33</v>
+      <c r="Z2" t="n">
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -1934,100 +743,100 @@
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-5284</v>
       </c>
       <c r="C3" t="n">
         <v>-0.58</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
+      <c r="D3" t="n">
+        <v>-8767</v>
       </c>
       <c r="E3" t="n">
         <v>-0.87</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
+      <c r="F3" t="n">
+        <v>5383</v>
       </c>
       <c r="G3" t="n">
         <v>0.55</v>
       </c>
-      <c r="H3" t="s">
-        <v>38</v>
+      <c r="H3" t="n">
+        <v>1845</v>
       </c>
       <c r="I3" t="n">
         <v>0.04</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
+      <c r="J3" t="n">
+        <v>778</v>
       </c>
       <c r="K3" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L3" t="s">
-        <v>40</v>
+      <c r="L3" t="n">
+        <v>-13582</v>
       </c>
       <c r="M3" t="n">
         <v>-0.91</v>
       </c>
-      <c r="N3" t="s">
-        <v>41</v>
+      <c r="N3" t="n">
+        <v>7561</v>
       </c>
       <c r="O3" t="n">
         <v>0.8</v>
       </c>
-      <c r="P3" t="s">
-        <v>42</v>
+      <c r="P3" t="n">
+        <v>-13885</v>
       </c>
       <c r="Q3" t="n">
         <v>-0.28</v>
       </c>
-      <c r="R3" t="s">
-        <v>43</v>
+      <c r="R3" t="n">
+        <v>-501</v>
       </c>
       <c r="S3" t="n">
         <v>-0.05</v>
       </c>
-      <c r="T3" t="s">
-        <v>44</v>
+      <c r="T3" t="n">
+        <v>-9713</v>
       </c>
       <c r="U3" t="n">
         <v>-0.88</v>
       </c>
-      <c r="V3" t="s">
-        <v>45</v>
+      <c r="V3" t="n">
+        <v>-1876</v>
       </c>
       <c r="W3" t="n">
         <v>-0.16</v>
       </c>
-      <c r="X3" t="s">
-        <v>46</v>
+      <c r="X3" t="n">
+        <v>-15246</v>
       </c>
       <c r="Y3" t="n">
         <v>-0.35</v>
       </c>
-      <c r="Z3" t="s">
-        <v>47</v>
+      <c r="Z3" t="n">
+        <v>9118</v>
       </c>
       <c r="AA3" t="n">
         <v>1.04</v>
       </c>
-      <c r="AB3" t="s">
-        <v>48</v>
+      <c r="AB3" t="n">
+        <v>-13278</v>
       </c>
       <c r="AC3" t="n">
         <v>-1.17</v>
       </c>
-      <c r="AD3" t="s">
-        <v>49</v>
+      <c r="AD3" t="n">
+        <v>26253</v>
       </c>
       <c r="AE3" t="n">
         <v>2.58</v>
       </c>
-      <c r="AF3" t="s">
-        <v>50</v>
+      <c r="AF3" t="n">
+        <v>30869</v>
       </c>
       <c r="AG3" t="n">
         <v>0.71</v>
@@ -2035,100 +844,100 @@
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10995</v>
       </c>
       <c r="C4" t="n">
         <v>1.2</v>
       </c>
-      <c r="D4" t="s">
-        <v>53</v>
+      <c r="D4" t="n">
+        <v>26923</v>
       </c>
       <c r="E4" t="n">
         <v>2.67</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
+      <c r="F4" t="n">
+        <v>6257</v>
       </c>
       <c r="G4" t="n">
         <v>0.63</v>
       </c>
-      <c r="H4" t="s">
-        <v>55</v>
+      <c r="H4" t="n">
+        <v>56577</v>
       </c>
       <c r="I4" t="n">
         <v>1.24</v>
       </c>
-      <c r="J4" t="s">
-        <v>56</v>
+      <c r="J4" t="n">
+        <v>-3570</v>
       </c>
       <c r="K4" t="n">
         <v>-0.3</v>
       </c>
-      <c r="L4" t="s">
-        <v>57</v>
+      <c r="L4" t="n">
+        <v>-5267</v>
       </c>
       <c r="M4" t="n">
         <v>-0.35</v>
       </c>
-      <c r="N4" t="s">
-        <v>58</v>
+      <c r="N4" t="n">
+        <v>7811</v>
       </c>
       <c r="O4" t="n">
         <v>0.83</v>
       </c>
-      <c r="P4" t="s">
-        <v>59</v>
+      <c r="P4" t="n">
+        <v>-9803</v>
       </c>
       <c r="Q4" t="n">
         <v>-0.2</v>
       </c>
-      <c r="R4" t="s">
-        <v>60</v>
+      <c r="R4" t="n">
+        <v>-9071</v>
       </c>
       <c r="S4" t="n">
         <v>-0.95</v>
       </c>
-      <c r="T4" t="s">
-        <v>61</v>
+      <c r="T4" t="n">
+        <v>1513</v>
       </c>
       <c r="U4" t="n">
         <v>0.14</v>
       </c>
-      <c r="V4" t="s">
-        <v>62</v>
+      <c r="V4" t="n">
+        <v>-42099</v>
       </c>
       <c r="W4" t="n">
         <v>-3.65</v>
       </c>
-      <c r="X4" t="s">
-        <v>63</v>
+      <c r="X4" t="n">
+        <v>-48496</v>
       </c>
       <c r="Y4" t="n">
         <v>-1.11</v>
       </c>
-      <c r="Z4" t="s">
-        <v>64</v>
+      <c r="Z4" t="n">
+        <v>1086</v>
       </c>
       <c r="AA4" t="n">
         <v>0.12</v>
       </c>
-      <c r="AB4" t="s">
-        <v>65</v>
+      <c r="AB4" t="n">
+        <v>-31021</v>
       </c>
       <c r="AC4" t="n">
         <v>-2.74</v>
       </c>
-      <c r="AD4" t="s">
-        <v>66</v>
+      <c r="AD4" t="n">
+        <v>-23768</v>
       </c>
       <c r="AE4" t="n">
         <v>-2.33</v>
       </c>
-      <c r="AF4" t="s">
-        <v>67</v>
+      <c r="AF4" t="n">
+        <v>-94142</v>
       </c>
       <c r="AG4" t="n">
         <v>-2.17</v>
@@ -2136,100 +945,100 @@
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6646</v>
       </c>
       <c r="C5" t="n">
         <v>0.73</v>
       </c>
-      <c r="D5" t="s">
-        <v>70</v>
+      <c r="D5" t="n">
+        <v>4866</v>
       </c>
       <c r="E5" t="n">
         <v>0.48</v>
       </c>
-      <c r="F5" t="s">
-        <v>71</v>
+      <c r="F5" t="n">
+        <v>7652</v>
       </c>
       <c r="G5" t="n">
         <v>0.78</v>
       </c>
-      <c r="H5" t="s">
-        <v>72</v>
+      <c r="H5" t="n">
+        <v>29505</v>
       </c>
       <c r="I5" t="n">
         <v>0.65</v>
       </c>
-      <c r="J5" t="s">
-        <v>73</v>
+      <c r="J5" t="n">
+        <v>8916</v>
       </c>
       <c r="K5" t="n">
         <v>0.75</v>
       </c>
-      <c r="L5" t="s">
-        <v>74</v>
+      <c r="L5" t="n">
+        <v>11686</v>
       </c>
       <c r="M5" t="n">
         <v>0.78</v>
       </c>
-      <c r="N5" t="s">
-        <v>75</v>
+      <c r="N5" t="n">
+        <v>8366</v>
       </c>
       <c r="O5" t="n">
         <v>0.89</v>
       </c>
-      <c r="P5" t="s">
-        <v>76</v>
+      <c r="P5" t="n">
+        <v>41973</v>
       </c>
       <c r="Q5" t="n">
         <v>0.84</v>
       </c>
-      <c r="R5" t="s">
-        <v>77</v>
+      <c r="R5" t="n">
+        <v>3474</v>
       </c>
       <c r="S5" t="n">
         <v>0.36</v>
       </c>
-      <c r="T5" t="s">
-        <v>78</v>
+      <c r="T5" t="n">
+        <v>7437</v>
       </c>
       <c r="U5" t="n">
         <v>0.68</v>
       </c>
-      <c r="V5" t="s">
-        <v>79</v>
+      <c r="V5" t="n">
+        <v>8738</v>
       </c>
       <c r="W5" t="n">
         <v>0.76</v>
       </c>
-      <c r="X5" t="s">
-        <v>80</v>
+      <c r="X5" t="n">
+        <v>27575</v>
       </c>
       <c r="Y5" t="n">
         <v>0.63</v>
       </c>
-      <c r="Z5" t="s">
-        <v>81</v>
+      <c r="Z5" t="n">
+        <v>5711</v>
       </c>
       <c r="AA5" t="n">
         <v>0.65</v>
       </c>
-      <c r="AB5" t="s">
-        <v>82</v>
+      <c r="AB5" t="n">
+        <v>6710</v>
       </c>
       <c r="AC5" t="n">
         <v>0.59</v>
       </c>
-      <c r="AD5" t="s">
-        <v>83</v>
+      <c r="AD5" t="n">
+        <v>19058</v>
       </c>
       <c r="AE5" t="n">
         <v>1.87</v>
       </c>
-      <c r="AF5" t="s">
-        <v>84</v>
+      <c r="AF5" t="n">
+        <v>37541</v>
       </c>
       <c r="AG5" t="n">
         <v>0.86</v>
@@ -2237,7 +1046,7 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
@@ -2245,8 +1054,8 @@
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>33</v>
+      <c r="H6" t="n">
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2257,8 +1066,8 @@
       <c r="M6" t="s"/>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
-      <c r="P6" t="s">
-        <v>33</v>
+      <c r="P6" t="n">
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -2282,100 +1091,100 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
+        <v>37</v>
+      </c>
+      <c r="B7" t="n">
+        <v>47548</v>
       </c>
       <c r="C7" t="n">
         <v>5.19</v>
       </c>
-      <c r="D7" t="s">
-        <v>88</v>
+      <c r="D7" t="n">
+        <v>31459</v>
       </c>
       <c r="E7" t="n">
         <v>3.11</v>
       </c>
-      <c r="F7" t="s">
-        <v>89</v>
+      <c r="F7" t="n">
+        <v>-20650</v>
       </c>
       <c r="G7" t="n">
         <v>-2.1</v>
       </c>
-      <c r="H7" t="s">
-        <v>90</v>
+      <c r="H7" t="n">
+        <v>101176</v>
       </c>
       <c r="I7" t="n">
         <v>2.22</v>
       </c>
-      <c r="J7" t="s">
-        <v>91</v>
+      <c r="J7" t="n">
+        <v>-10317</v>
       </c>
       <c r="K7" t="n">
         <v>-0.87</v>
       </c>
-      <c r="L7" t="s">
-        <v>92</v>
+      <c r="L7" t="n">
+        <v>-60390</v>
       </c>
       <c r="M7" t="n">
         <v>-4.04</v>
       </c>
-      <c r="N7" t="s">
-        <v>93</v>
+      <c r="N7" t="n">
+        <v>74358</v>
       </c>
       <c r="O7" t="n">
         <v>7.88</v>
       </c>
-      <c r="P7" t="s">
-        <v>94</v>
+      <c r="P7" t="n">
+        <v>74194</v>
       </c>
       <c r="Q7" t="n">
         <v>1.48</v>
       </c>
-      <c r="R7" t="s">
-        <v>95</v>
+      <c r="R7" t="n">
+        <v>-26012</v>
       </c>
       <c r="S7" t="n">
         <v>-2.73</v>
       </c>
-      <c r="T7" t="s">
-        <v>96</v>
+      <c r="T7" t="n">
+        <v>-45984</v>
       </c>
       <c r="U7" t="n">
         <v>-4.18</v>
       </c>
-      <c r="V7" t="s">
-        <v>97</v>
+      <c r="V7" t="n">
+        <v>98238</v>
       </c>
       <c r="W7" t="n">
         <v>8.52</v>
       </c>
-      <c r="X7" t="s">
-        <v>98</v>
+      <c r="X7" t="n">
+        <v>-72042</v>
       </c>
       <c r="Y7" t="n">
         <v>-1.66</v>
       </c>
-      <c r="Z7" t="s">
-        <v>99</v>
+      <c r="Z7" t="n">
+        <v>-923</v>
       </c>
       <c r="AA7" t="n">
         <v>-0.11</v>
       </c>
-      <c r="AB7" t="s">
-        <v>100</v>
+      <c r="AB7" t="n">
+        <v>-74365</v>
       </c>
       <c r="AC7" t="n">
         <v>-6.58</v>
       </c>
-      <c r="AD7" t="s">
-        <v>101</v>
+      <c r="AD7" t="n">
+        <v>-46898</v>
       </c>
       <c r="AE7" t="n">
         <v>-4.6</v>
       </c>
-      <c r="AF7" t="s">
-        <v>102</v>
+      <c r="AF7" t="n">
+        <v>-160998</v>
       </c>
       <c r="AG7" t="n">
         <v>-3.7</v>
@@ -2383,100 +1192,100 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" t="s">
-        <v>104</v>
+        <v>38</v>
+      </c>
+      <c r="B8" t="n">
+        <v>52832</v>
       </c>
       <c r="C8" t="n">
         <v>5.77</v>
       </c>
-      <c r="D8" t="s">
-        <v>105</v>
+      <c r="D8" t="n">
+        <v>38731</v>
       </c>
       <c r="E8" t="n">
         <v>3.83</v>
       </c>
-      <c r="F8" t="s">
-        <v>106</v>
+      <c r="F8" t="n">
+        <v>-25999</v>
       </c>
       <c r="G8" t="n">
         <v>-2.64</v>
       </c>
-      <c r="H8" t="s">
-        <v>107</v>
+      <c r="H8" t="n">
+        <v>134350</v>
       </c>
       <c r="I8" t="n">
         <v>2.95</v>
       </c>
-      <c r="J8" t="s">
-        <v>108</v>
+      <c r="J8" t="n">
+        <v>-10439</v>
       </c>
       <c r="K8" t="n">
         <v>-0.88</v>
       </c>
-      <c r="L8" t="s">
-        <v>109</v>
+      <c r="L8" t="n">
+        <v>-46863</v>
       </c>
       <c r="M8" t="n">
         <v>-3.14</v>
       </c>
-      <c r="N8" t="s">
-        <v>110</v>
+      <c r="N8" t="n">
+        <v>66281</v>
       </c>
       <c r="O8" t="n">
         <v>7.02</v>
       </c>
-      <c r="P8" t="s">
-        <v>111</v>
+      <c r="P8" t="n">
+        <v>92415</v>
       </c>
       <c r="Q8" t="n">
         <v>1.85</v>
       </c>
-      <c r="R8" t="s">
-        <v>112</v>
+      <c r="R8" t="n">
+        <v>-25622</v>
       </c>
       <c r="S8" t="n">
         <v>-2.69</v>
       </c>
-      <c r="T8" t="s">
-        <v>113</v>
+      <c r="T8" t="n">
+        <v>-36532</v>
       </c>
       <c r="U8" t="n">
         <v>-3.32</v>
       </c>
-      <c r="V8" t="s">
-        <v>114</v>
+      <c r="V8" t="n">
+        <v>99681</v>
       </c>
       <c r="W8" t="n">
         <v>8.65</v>
       </c>
-      <c r="X8" t="s">
-        <v>115</v>
+      <c r="X8" t="n">
+        <v>-49429</v>
       </c>
       <c r="Y8" t="n">
         <v>-1.14</v>
       </c>
-      <c r="Z8" t="s">
-        <v>116</v>
+      <c r="Z8" t="n">
+        <v>-10053</v>
       </c>
       <c r="AA8" t="n">
         <v>-1.15</v>
       </c>
-      <c r="AB8" t="s">
-        <v>117</v>
+      <c r="AB8" t="n">
+        <v>-60844</v>
       </c>
       <c r="AC8" t="n">
         <v>-5.38</v>
       </c>
-      <c r="AD8" t="s">
-        <v>118</v>
+      <c r="AD8" t="n">
+        <v>-72882</v>
       </c>
       <c r="AE8" t="n">
         <v>-7.15</v>
       </c>
-      <c r="AF8" t="s">
-        <v>119</v>
+      <c r="AF8" t="n">
+        <v>-183555</v>
       </c>
       <c r="AG8" t="n">
         <v>-4.22</v>
@@ -2484,79 +1293,79 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.09</v>
       </c>
       <c r="C9" t="s"/>
-      <c r="D9" t="s">
-        <v>122</v>
+      <c r="D9" t="n">
+        <v>0.16</v>
       </c>
       <c r="E9" t="s"/>
-      <c r="F9" t="s">
-        <v>123</v>
+      <c r="F9" t="n">
+        <v>0.05</v>
       </c>
       <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>124</v>
+      <c r="H9" t="n">
+        <v>0.65</v>
       </c>
       <c r="I9" t="s"/>
-      <c r="J9" t="s">
-        <v>125</v>
+      <c r="J9" t="n">
+        <v>0.2</v>
       </c>
       <c r="K9" t="s"/>
-      <c r="L9" t="s">
-        <v>126</v>
+      <c r="L9" t="n">
+        <v>0.26</v>
       </c>
       <c r="M9" t="s"/>
-      <c r="N9" t="s">
-        <v>127</v>
+      <c r="N9" t="n">
+        <v>0.08</v>
       </c>
       <c r="O9" t="s"/>
-      <c r="P9" t="s">
-        <v>128</v>
+      <c r="P9" t="n">
+        <v>0.67</v>
       </c>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s">
-        <v>129</v>
+      <c r="R9" t="n">
+        <v>0.02</v>
       </c>
       <c r="S9" t="s"/>
-      <c r="T9" t="s">
-        <v>130</v>
+      <c r="T9" t="n">
+        <v>-0.03</v>
       </c>
       <c r="U9" t="s"/>
-      <c r="V9" t="s">
-        <v>131</v>
+      <c r="V9" t="n">
+        <v>-0.08</v>
       </c>
       <c r="W9" t="s"/>
-      <c r="X9" t="s">
-        <v>132</v>
+      <c r="X9" t="n">
+        <v>0.04</v>
       </c>
       <c r="Y9" t="s"/>
-      <c r="Z9" t="s">
-        <v>130</v>
+      <c r="Z9" t="n">
+        <v>-0.03</v>
       </c>
       <c r="AA9" t="s"/>
-      <c r="AB9" t="s">
-        <v>133</v>
+      <c r="AB9" t="n">
+        <v>0.17</v>
       </c>
       <c r="AC9" t="s"/>
-      <c r="AD9" t="s">
-        <v>127</v>
+      <c r="AD9" t="n">
+        <v>0.08</v>
       </c>
       <c r="AE9" t="s"/>
-      <c r="AF9" t="s">
-        <v>134</v>
+      <c r="AF9" t="n">
+        <v>0.42</v>
       </c>
       <c r="AG9" t="s"/>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2594,100 +1403,100 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" t="s">
-        <v>137</v>
+        <v>41</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8544</v>
       </c>
       <c r="C11" t="n">
         <v>0.93</v>
       </c>
-      <c r="D11" t="s">
-        <v>138</v>
+      <c r="D11" t="n">
+        <v>9337</v>
       </c>
       <c r="E11" t="n">
         <v>0.92</v>
       </c>
-      <c r="F11" t="s">
-        <v>139</v>
+      <c r="F11" t="n">
+        <v>6022</v>
       </c>
       <c r="G11" t="n">
         <v>0.61</v>
       </c>
-      <c r="H11" t="s">
-        <v>140</v>
+      <c r="H11" t="n">
+        <v>48325</v>
       </c>
       <c r="I11" t="n">
         <v>1.06</v>
       </c>
-      <c r="J11" t="s">
-        <v>141</v>
+      <c r="J11" t="n">
+        <v>28994</v>
       </c>
       <c r="K11" t="n">
         <v>2.43</v>
       </c>
-      <c r="L11" t="s">
-        <v>142</v>
+      <c r="L11" t="n">
+        <v>51681</v>
       </c>
       <c r="M11" t="n">
         <v>3.46</v>
       </c>
-      <c r="N11" t="s">
-        <v>143</v>
+      <c r="N11" t="n">
+        <v>698</v>
       </c>
       <c r="O11" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="P11" t="s">
-        <v>144</v>
+      <c r="P11" t="n">
+        <v>90056</v>
       </c>
       <c r="Q11" t="n">
         <v>1.8</v>
       </c>
-      <c r="R11" t="s">
-        <v>145</v>
+      <c r="R11" t="n">
+        <v>6327</v>
       </c>
       <c r="S11" t="n">
         <v>0.66</v>
       </c>
-      <c r="T11" t="s">
-        <v>146</v>
+      <c r="T11" t="n">
+        <v>28323</v>
       </c>
       <c r="U11" t="n">
         <v>2.57</v>
       </c>
-      <c r="V11" t="s">
-        <v>147</v>
+      <c r="V11" t="n">
+        <v>12483</v>
       </c>
       <c r="W11" t="n">
         <v>1.08</v>
       </c>
-      <c r="X11" t="s">
-        <v>148</v>
+      <c r="X11" t="n">
+        <v>68462</v>
       </c>
       <c r="Y11" t="n">
         <v>1.57</v>
       </c>
-      <c r="Z11" t="s">
-        <v>149</v>
+      <c r="Z11" t="n">
+        <v>6626</v>
       </c>
       <c r="AA11" t="n">
         <v>0.76</v>
       </c>
-      <c r="AB11" t="s">
-        <v>150</v>
+      <c r="AB11" t="n">
+        <v>8472</v>
       </c>
       <c r="AC11" t="n">
         <v>0.75</v>
       </c>
-      <c r="AD11" t="s">
-        <v>151</v>
+      <c r="AD11" t="n">
+        <v>7170</v>
       </c>
       <c r="AE11" t="n">
         <v>0.7</v>
       </c>
-      <c r="AF11" t="s">
-        <v>152</v>
+      <c r="AF11" t="n">
+        <v>31706</v>
       </c>
       <c r="AG11" t="n">
         <v>0.73</v>
@@ -2695,7 +1504,7 @@
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -2709,62 +1518,62 @@
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
       <c r="M12" t="s"/>
-      <c r="N12" t="s">
-        <v>154</v>
+      <c r="N12" t="n">
+        <v>-370</v>
       </c>
       <c r="O12" t="n">
         <v>-0.04</v>
       </c>
-      <c r="P12" t="s">
-        <v>155</v>
+      <c r="P12" t="n">
+        <v>-1012</v>
       </c>
       <c r="Q12" t="n">
         <v>-0.02</v>
       </c>
-      <c r="R12" t="s">
-        <v>156</v>
+      <c r="R12" t="n">
+        <v>-220</v>
       </c>
       <c r="S12" t="n">
         <v>-0.02</v>
       </c>
-      <c r="T12" t="s">
-        <v>157</v>
+      <c r="T12" t="n">
+        <v>-216</v>
       </c>
       <c r="U12" t="n">
         <v>-0.02</v>
       </c>
-      <c r="V12" t="s">
-        <v>158</v>
+      <c r="V12" t="n">
+        <v>-205</v>
       </c>
       <c r="W12" t="n">
         <v>-0.02</v>
       </c>
-      <c r="X12" t="s">
-        <v>159</v>
+      <c r="X12" t="n">
+        <v>-916</v>
       </c>
       <c r="Y12" t="n">
         <v>-0.02</v>
       </c>
-      <c r="Z12" t="s">
-        <v>160</v>
+      <c r="Z12" t="n">
+        <v>-96</v>
       </c>
       <c r="AA12" t="n">
         <v>-0.01</v>
       </c>
-      <c r="AB12" t="s">
-        <v>161</v>
+      <c r="AB12" t="n">
+        <v>-178</v>
       </c>
       <c r="AC12" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AD12" t="s">
-        <v>162</v>
+      <c r="AD12" t="n">
+        <v>-267</v>
       </c>
       <c r="AE12" t="n">
         <v>-0.03</v>
       </c>
-      <c r="AF12" t="s">
-        <v>163</v>
+      <c r="AF12" t="n">
+        <v>-667</v>
       </c>
       <c r="AG12" t="n">
         <v>-0.02</v>
@@ -2772,100 +1581,100 @@
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" t="s">
-        <v>165</v>
+        <v>43</v>
+      </c>
+      <c r="B13" t="n">
+        <v>51310</v>
       </c>
       <c r="C13" t="n">
         <v>5.6</v>
       </c>
-      <c r="D13" t="s">
-        <v>166</v>
+      <c r="D13" t="n">
+        <v>79363</v>
       </c>
       <c r="E13" t="n">
         <v>7.86</v>
       </c>
-      <c r="F13" t="s">
-        <v>167</v>
+      <c r="F13" t="n">
+        <v>47038</v>
       </c>
       <c r="G13" t="n">
         <v>4.77</v>
       </c>
-      <c r="H13" t="s">
-        <v>168</v>
+      <c r="H13" t="n">
+        <v>292224</v>
       </c>
       <c r="I13" t="n">
         <v>6.42</v>
       </c>
-      <c r="J13" t="s">
-        <v>169</v>
+      <c r="J13" t="n">
+        <v>51308</v>
       </c>
       <c r="K13" t="n">
         <v>4.3</v>
       </c>
-      <c r="L13" t="s">
-        <v>170</v>
+      <c r="L13" t="n">
+        <v>63785</v>
       </c>
       <c r="M13" t="n">
         <v>4.27</v>
       </c>
-      <c r="N13" t="s">
-        <v>171</v>
+      <c r="N13" t="n">
+        <v>56382</v>
       </c>
       <c r="O13" t="n">
         <v>5.97</v>
       </c>
-      <c r="P13" t="s">
-        <v>172</v>
+      <c r="P13" t="n">
+        <v>227098</v>
       </c>
       <c r="Q13" t="n">
         <v>4.54</v>
       </c>
-      <c r="R13" t="s">
-        <v>173</v>
+      <c r="R13" t="n">
+        <v>41888</v>
       </c>
       <c r="S13" t="n">
         <v>4.4</v>
       </c>
-      <c r="T13" t="s">
-        <v>174</v>
+      <c r="T13" t="n">
+        <v>43834</v>
       </c>
       <c r="U13" t="n">
         <v>3.98</v>
       </c>
-      <c r="V13" t="s">
-        <v>175</v>
+      <c r="V13" t="n">
+        <v>48522</v>
       </c>
       <c r="W13" t="n">
         <v>4.21</v>
       </c>
-      <c r="X13" t="s">
-        <v>176</v>
+      <c r="X13" t="n">
+        <v>178586</v>
       </c>
       <c r="Y13" t="n">
         <v>4.1</v>
       </c>
-      <c r="Z13" t="s">
-        <v>177</v>
+      <c r="Z13" t="n">
+        <v>41576</v>
       </c>
       <c r="AA13" t="n">
         <v>4.75</v>
       </c>
-      <c r="AB13" t="s">
-        <v>178</v>
+      <c r="AB13" t="n">
+        <v>43917</v>
       </c>
       <c r="AC13" t="n">
         <v>3.88</v>
       </c>
-      <c r="AD13" t="s">
-        <v>179</v>
+      <c r="AD13" t="n">
+        <v>37141</v>
       </c>
       <c r="AE13" t="n">
         <v>3.64</v>
       </c>
-      <c r="AF13" t="s">
-        <v>180</v>
+      <c r="AF13" t="n">
+        <v>162557</v>
       </c>
       <c r="AG13" t="n">
         <v>3.74</v>
@@ -2873,10 +1682,10 @@
     </row>
     <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2914,100 +1723,100 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15" t="s">
-        <v>183</v>
+        <v>45</v>
+      </c>
+      <c r="B15" t="n">
+        <v>35090</v>
       </c>
       <c r="C15" t="n">
         <v>3.83</v>
       </c>
-      <c r="D15" t="s">
-        <v>184</v>
+      <c r="D15" t="n">
+        <v>71699</v>
       </c>
       <c r="E15" t="n">
         <v>7.1</v>
       </c>
-      <c r="F15" t="s">
-        <v>185</v>
+      <c r="F15" t="n">
+        <v>14151</v>
       </c>
       <c r="G15" t="n">
         <v>1.44</v>
       </c>
-      <c r="H15" t="s">
-        <v>186</v>
+      <c r="H15" t="n">
+        <v>322700</v>
       </c>
       <c r="I15" t="n">
         <v>7.09</v>
       </c>
-      <c r="J15" t="s">
-        <v>187</v>
+      <c r="J15" t="n">
+        <v>107003</v>
       </c>
       <c r="K15" t="n">
         <v>8.98</v>
       </c>
-      <c r="L15" t="s">
-        <v>188</v>
+      <c r="L15" t="n">
+        <v>145231</v>
       </c>
       <c r="M15" t="n">
         <v>9.73</v>
       </c>
-      <c r="N15" t="s">
-        <v>189</v>
+      <c r="N15" t="n">
+        <v>23008</v>
       </c>
       <c r="O15" t="n">
         <v>2.44</v>
       </c>
-      <c r="P15" t="s">
-        <v>190</v>
+      <c r="P15" t="n">
+        <v>336764</v>
       </c>
       <c r="Q15" t="n">
         <v>6.74</v>
       </c>
-      <c r="R15" t="s">
-        <v>191</v>
+      <c r="R15" t="n">
+        <v>1507</v>
       </c>
       <c r="S15" t="n">
         <v>0.16</v>
       </c>
-      <c r="T15" t="s">
-        <v>192</v>
+      <c r="T15" t="n">
+        <v>-30732</v>
       </c>
       <c r="U15" t="n">
         <v>-2.79</v>
       </c>
-      <c r="V15" t="s">
-        <v>193</v>
+      <c r="V15" t="n">
+        <v>-72270</v>
       </c>
       <c r="W15" t="n">
         <v>-6.27</v>
       </c>
-      <c r="X15" t="s">
-        <v>194</v>
+      <c r="X15" t="n">
+        <v>-57407</v>
       </c>
       <c r="Y15" t="n">
         <v>-1.32</v>
       </c>
-      <c r="Z15" t="s">
-        <v>195</v>
+      <c r="Z15" t="n">
+        <v>-33204</v>
       </c>
       <c r="AA15" t="n">
         <v>-3.79</v>
       </c>
-      <c r="AB15" t="s">
-        <v>196</v>
+      <c r="AB15" t="n">
+        <v>77164</v>
       </c>
       <c r="AC15" t="n">
         <v>6.83</v>
       </c>
-      <c r="AD15" t="s">
-        <v>197</v>
+      <c r="AD15" t="n">
+        <v>32507</v>
       </c>
       <c r="AE15" t="n">
         <v>3.19</v>
       </c>
-      <c r="AF15" t="s">
-        <v>198</v>
+      <c r="AF15" t="n">
+        <v>177671</v>
       </c>
       <c r="AG15" t="n">
         <v>4.09</v>
@@ -3015,100 +1824,100 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" t="s">
-        <v>200</v>
+        <v>46</v>
+      </c>
+      <c r="B16" t="n">
+        <v>82638</v>
       </c>
       <c r="C16" t="n">
         <v>9.02</v>
       </c>
-      <c r="D16" t="s">
-        <v>201</v>
+      <c r="D16" t="n">
+        <v>103158</v>
       </c>
       <c r="E16" t="n">
         <v>10.21</v>
       </c>
-      <c r="F16" t="s">
-        <v>202</v>
+      <c r="F16" t="n">
+        <v>-6499</v>
       </c>
       <c r="G16" t="n">
         <v>-0.66</v>
       </c>
-      <c r="H16" t="s">
-        <v>203</v>
+      <c r="H16" t="n">
+        <v>423876</v>
       </c>
       <c r="I16" t="n">
         <v>9.31</v>
       </c>
-      <c r="J16" t="s">
-        <v>204</v>
+      <c r="J16" t="n">
+        <v>96686</v>
       </c>
       <c r="K16" t="n">
         <v>8.109999999999999</v>
       </c>
-      <c r="L16" t="s">
-        <v>205</v>
+      <c r="L16" t="n">
+        <v>84841</v>
       </c>
       <c r="M16" t="n">
         <v>5.68</v>
       </c>
-      <c r="N16" t="s">
-        <v>206</v>
+      <c r="N16" t="n">
+        <v>97366</v>
       </c>
       <c r="O16" t="n">
         <v>10.31</v>
       </c>
-      <c r="P16" t="s">
-        <v>207</v>
+      <c r="P16" t="n">
+        <v>410958</v>
       </c>
       <c r="Q16" t="n">
         <v>8.220000000000001</v>
       </c>
-      <c r="R16" t="s">
-        <v>208</v>
+      <c r="R16" t="n">
+        <v>-24505</v>
       </c>
       <c r="S16" t="n">
         <v>-2.57</v>
       </c>
-      <c r="T16" t="s">
-        <v>209</v>
+      <c r="T16" t="n">
+        <v>-76716</v>
       </c>
       <c r="U16" t="n">
         <v>-6.97</v>
       </c>
-      <c r="V16" t="s">
-        <v>210</v>
+      <c r="V16" t="n">
+        <v>25968</v>
       </c>
       <c r="W16" t="n">
         <v>2.25</v>
       </c>
-      <c r="X16" t="s">
-        <v>211</v>
+      <c r="X16" t="n">
+        <v>-129449</v>
       </c>
       <c r="Y16" t="n">
         <v>-2.98</v>
       </c>
-      <c r="Z16" t="s">
-        <v>212</v>
+      <c r="Z16" t="n">
+        <v>-34127</v>
       </c>
       <c r="AA16" t="n">
         <v>-3.9</v>
       </c>
-      <c r="AB16" t="s">
-        <v>213</v>
+      <c r="AB16" t="n">
+        <v>2799</v>
       </c>
       <c r="AC16" t="n">
         <v>0.25</v>
       </c>
-      <c r="AD16" t="s">
-        <v>214</v>
+      <c r="AD16" t="n">
+        <v>-14391</v>
       </c>
       <c r="AE16" t="n">
         <v>-1.41</v>
       </c>
-      <c r="AF16" t="s">
-        <v>215</v>
+      <c r="AF16" t="n">
+        <v>16673</v>
       </c>
       <c r="AG16" t="n">
         <v>0.38</v>
@@ -3116,100 +1925,100 @@
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" t="s">
-        <v>217</v>
+        <v>47</v>
+      </c>
+      <c r="B17" t="n">
+        <v>37666</v>
       </c>
       <c r="C17" t="n">
         <v>4.11</v>
       </c>
-      <c r="D17" t="s">
-        <v>218</v>
+      <c r="D17" t="n">
+        <v>68919</v>
       </c>
       <c r="E17" t="n">
         <v>6.82</v>
       </c>
-      <c r="F17" t="s">
-        <v>219</v>
+      <c r="F17" t="n">
+        <v>21072</v>
       </c>
       <c r="G17" t="n">
         <v>2.14</v>
       </c>
-      <c r="H17" t="s">
-        <v>220</v>
+      <c r="H17" t="n">
+        <v>274532</v>
       </c>
       <c r="I17" t="n">
         <v>6.03</v>
       </c>
-      <c r="J17" t="s">
-        <v>221</v>
+      <c r="J17" t="n">
+        <v>85720</v>
       </c>
       <c r="K17" t="n">
         <v>7.19</v>
       </c>
-      <c r="L17" t="s">
-        <v>222</v>
+      <c r="L17" t="n">
+        <v>111497</v>
       </c>
       <c r="M17" t="n">
         <v>7.47</v>
       </c>
-      <c r="N17" t="s">
-        <v>223</v>
+      <c r="N17" t="n">
+        <v>33449</v>
       </c>
       <c r="O17" t="n">
         <v>3.54</v>
       </c>
-      <c r="P17" t="s">
-        <v>224</v>
+      <c r="P17" t="n">
+        <v>283540</v>
       </c>
       <c r="Q17" t="n">
         <v>5.67</v>
       </c>
-      <c r="R17" t="s">
-        <v>225</v>
+      <c r="R17" t="n">
+        <v>10502</v>
       </c>
       <c r="S17" t="n">
         <v>1.1</v>
       </c>
-      <c r="T17" t="s">
-        <v>226</v>
+      <c r="T17" t="n">
+        <v>-14026</v>
       </c>
       <c r="U17" t="n">
         <v>-1.27</v>
       </c>
-      <c r="V17" t="s">
-        <v>227</v>
+      <c r="V17" t="n">
+        <v>-32430</v>
       </c>
       <c r="W17" t="n">
         <v>-2.81</v>
       </c>
-      <c r="X17" t="s">
-        <v>228</v>
+      <c r="X17" t="n">
+        <v>17977</v>
       </c>
       <c r="Y17" t="n">
         <v>0.41</v>
       </c>
-      <c r="Z17" t="s">
-        <v>229</v>
+      <c r="Z17" t="n">
+        <v>-11582</v>
       </c>
       <c r="AA17" t="n">
         <v>-1.32</v>
       </c>
-      <c r="AB17" t="s">
-        <v>230</v>
+      <c r="AB17" t="n">
+        <v>64650</v>
       </c>
       <c r="AC17" t="n">
         <v>5.72</v>
       </c>
-      <c r="AD17" t="s">
-        <v>231</v>
+      <c r="AD17" t="n">
+        <v>30526</v>
       </c>
       <c r="AE17" t="n">
         <v>3</v>
       </c>
-      <c r="AF17" t="s">
-        <v>232</v>
+      <c r="AF17" t="n">
+        <v>161017</v>
       </c>
       <c r="AG17" t="n">
         <v>3.7</v>
@@ -3217,100 +2026,100 @@
     </row>
     <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B18" t="s">
-        <v>234</v>
+        <v>48</v>
+      </c>
+      <c r="B18" t="n">
+        <v>85214</v>
       </c>
       <c r="C18" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="D18" t="s">
-        <v>235</v>
+      <c r="D18" t="n">
+        <v>87470</v>
       </c>
       <c r="E18" t="n">
         <v>8.66</v>
       </c>
-      <c r="F18" t="s">
-        <v>236</v>
+      <c r="F18" t="n">
+        <v>9088</v>
       </c>
       <c r="G18" t="n">
         <v>0.92</v>
       </c>
-      <c r="H18" t="s">
-        <v>237</v>
+      <c r="H18" t="n">
+        <v>330324</v>
       </c>
       <c r="I18" t="n">
         <v>7.26</v>
       </c>
-      <c r="J18" t="s">
-        <v>238</v>
+      <c r="J18" t="n">
+        <v>78882</v>
       </c>
       <c r="K18" t="n">
         <v>6.62</v>
       </c>
-      <c r="L18" t="s">
-        <v>239</v>
+      <c r="L18" t="n">
+        <v>66727</v>
       </c>
       <c r="M18" t="n">
         <v>4.47</v>
       </c>
-      <c r="N18" t="s">
-        <v>240</v>
+      <c r="N18" t="n">
+        <v>85716</v>
       </c>
       <c r="O18" t="n">
         <v>9.08</v>
       </c>
-      <c r="P18" t="s">
-        <v>241</v>
+      <c r="P18" t="n">
+        <v>326958</v>
       </c>
       <c r="Q18" t="n">
         <v>6.54</v>
       </c>
-      <c r="R18" t="s">
-        <v>242</v>
+      <c r="R18" t="n">
+        <v>-6970</v>
       </c>
       <c r="S18" t="n">
         <v>-0.73</v>
       </c>
-      <c r="T18" t="s">
-        <v>243</v>
+      <c r="T18" t="n">
+        <v>-47834</v>
       </c>
       <c r="U18" t="n">
         <v>-4.35</v>
       </c>
-      <c r="V18" t="s">
-        <v>244</v>
+      <c r="V18" t="n">
+        <v>32584</v>
       </c>
       <c r="W18" t="n">
         <v>2.83</v>
       </c>
-      <c r="X18" t="s">
-        <v>245</v>
+      <c r="X18" t="n">
+        <v>-38346</v>
       </c>
       <c r="Y18" t="n">
         <v>-0.88</v>
       </c>
-      <c r="Z18" t="s">
-        <v>246</v>
+      <c r="Z18" t="n">
+        <v>-9154</v>
       </c>
       <c r="AA18" t="n">
         <v>-1.04</v>
       </c>
-      <c r="AB18" t="s">
-        <v>247</v>
+      <c r="AB18" t="n">
+        <v>10564</v>
       </c>
       <c r="AC18" t="n">
         <v>0.93</v>
       </c>
-      <c r="AD18" t="s">
-        <v>248</v>
+      <c r="AD18" t="n">
+        <v>7920</v>
       </c>
       <c r="AE18" t="n">
         <v>0.78</v>
       </c>
-      <c r="AF18" t="s">
-        <v>249</v>
+      <c r="AF18" t="n">
+        <v>61653</v>
       </c>
       <c r="AG18" t="n">
         <v>1.42</v>
@@ -3318,100 +2127,100 @@
     </row>
     <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B19" t="s">
-        <v>251</v>
+        <v>49</v>
+      </c>
+      <c r="B19" t="n">
+        <v>35919</v>
       </c>
       <c r="C19" t="n">
         <v>3.92</v>
       </c>
-      <c r="D19" t="s">
-        <v>252</v>
+      <c r="D19" t="n">
+        <v>56667</v>
       </c>
       <c r="E19" t="n">
         <v>5.61</v>
       </c>
-      <c r="F19" t="s">
-        <v>253</v>
+      <c r="F19" t="n">
+        <v>14575</v>
       </c>
       <c r="G19" t="n">
         <v>1.48</v>
       </c>
-      <c r="H19" t="s">
-        <v>254</v>
+      <c r="H19" t="n">
+        <v>322866</v>
       </c>
       <c r="I19" t="n">
         <v>7.09</v>
       </c>
-      <c r="J19" t="s">
-        <v>255</v>
+      <c r="J19" t="n">
+        <v>141243</v>
       </c>
       <c r="K19" t="n">
         <v>11.85</v>
       </c>
-      <c r="L19" t="s">
-        <v>256</v>
+      <c r="L19" t="n">
+        <v>202994</v>
       </c>
       <c r="M19" t="n">
         <v>13.6</v>
       </c>
-      <c r="N19" t="s">
-        <v>257</v>
+      <c r="N19" t="n">
+        <v>15883</v>
       </c>
       <c r="O19" t="n">
         <v>1.68</v>
       </c>
-      <c r="P19" t="s">
-        <v>258</v>
+      <c r="P19" t="n">
+        <v>433979</v>
       </c>
       <c r="Q19" t="n">
         <v>8.68</v>
       </c>
-      <c r="R19" t="s">
-        <v>259</v>
+      <c r="R19" t="n">
+        <v>20166</v>
       </c>
       <c r="S19" t="n">
         <v>2.12</v>
       </c>
-      <c r="T19" t="s">
-        <v>260</v>
+      <c r="T19" t="n">
+        <v>-5833</v>
       </c>
       <c r="U19" t="n">
         <v>-0.53</v>
       </c>
-      <c r="V19" t="s">
-        <v>261</v>
+      <c r="V19" t="n">
+        <v>-20464</v>
       </c>
       <c r="W19" t="n">
         <v>-1.78</v>
       </c>
-      <c r="X19" t="s">
-        <v>262</v>
+      <c r="X19" t="n">
+        <v>57798</v>
       </c>
       <c r="Y19" t="n">
         <v>1.33</v>
       </c>
-      <c r="Z19" t="s">
-        <v>263</v>
+      <c r="Z19" t="n">
+        <v>-26416</v>
       </c>
       <c r="AA19" t="n">
         <v>-3.02</v>
       </c>
-      <c r="AB19" t="s">
-        <v>264</v>
+      <c r="AB19" t="n">
+        <v>117288</v>
       </c>
       <c r="AC19" t="n">
         <v>10.37</v>
       </c>
-      <c r="AD19" t="s">
-        <v>265</v>
+      <c r="AD19" t="n">
+        <v>51964</v>
       </c>
       <c r="AE19" t="n">
         <v>5.1</v>
       </c>
-      <c r="AF19" t="s">
-        <v>266</v>
+      <c r="AF19" t="n">
+        <v>296695</v>
       </c>
       <c r="AG19" t="n">
         <v>6.83</v>
@@ -3419,100 +2228,100 @@
     </row>
     <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B20" t="s">
-        <v>268</v>
+        <v>50</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7715</v>
       </c>
       <c r="C20" t="n">
         <v>0.84</v>
       </c>
-      <c r="D20" t="s">
-        <v>269</v>
+      <c r="D20" t="n">
+        <v>24369</v>
       </c>
       <c r="E20" t="n">
         <v>2.41</v>
       </c>
-      <c r="F20" t="s">
-        <v>270</v>
+      <c r="F20" t="n">
+        <v>5598</v>
       </c>
       <c r="G20" t="n">
         <v>0.57</v>
       </c>
-      <c r="H20" t="s">
-        <v>271</v>
+      <c r="H20" t="n">
+        <v>48159</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
       </c>
-      <c r="J20" t="s">
-        <v>272</v>
+      <c r="J20" t="n">
+        <v>-5246</v>
       </c>
       <c r="K20" t="n">
         <v>-0.44</v>
       </c>
-      <c r="L20" t="s">
-        <v>273</v>
+      <c r="L20" t="n">
+        <v>-6082</v>
       </c>
       <c r="M20" t="n">
         <v>-0.41</v>
       </c>
-      <c r="N20" t="s">
-        <v>274</v>
+      <c r="N20" t="n">
+        <v>7823</v>
       </c>
       <c r="O20" t="n">
         <v>0.83</v>
       </c>
-      <c r="P20" t="s">
-        <v>275</v>
+      <c r="P20" t="n">
+        <v>-7159</v>
       </c>
       <c r="Q20" t="n">
         <v>-0.14</v>
       </c>
-      <c r="R20" t="s">
-        <v>276</v>
+      <c r="R20" t="n">
+        <v>-12332</v>
       </c>
       <c r="S20" t="n">
         <v>-1.3</v>
       </c>
-      <c r="T20" t="s">
-        <v>277</v>
+      <c r="T20" t="n">
+        <v>3424</v>
       </c>
       <c r="U20" t="n">
         <v>0.31</v>
       </c>
-      <c r="V20" t="s">
-        <v>278</v>
+      <c r="V20" t="n">
+        <v>-39323</v>
       </c>
       <c r="W20" t="n">
         <v>-3.41</v>
       </c>
-      <c r="X20" t="s">
-        <v>279</v>
+      <c r="X20" t="n">
+        <v>-46743</v>
       </c>
       <c r="Y20" t="n">
         <v>-1.07</v>
       </c>
-      <c r="Z20" t="s">
-        <v>280</v>
+      <c r="Z20" t="n">
+        <v>-162</v>
       </c>
       <c r="AA20" t="n">
         <v>-0.02</v>
       </c>
-      <c r="AB20" t="s">
-        <v>281</v>
+      <c r="AB20" t="n">
+        <v>-31652</v>
       </c>
       <c r="AC20" t="n">
         <v>-2.8</v>
       </c>
-      <c r="AD20" t="s">
-        <v>282</v>
+      <c r="AD20" t="n">
+        <v>-12287</v>
       </c>
       <c r="AE20" t="n">
         <v>-1.21</v>
       </c>
-      <c r="AF20" t="s">
-        <v>283</v>
+      <c r="AF20" t="n">
+        <v>-87318</v>
       </c>
       <c r="AG20" t="n">
         <v>-2.01</v>
@@ -3520,100 +2329,100 @@
     </row>
     <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B21" t="s">
-        <v>285</v>
+        <v>51</v>
+      </c>
+      <c r="B21" t="n">
+        <v>789963</v>
       </c>
       <c r="C21" t="n">
         <v>86.22</v>
       </c>
-      <c r="D21" t="s">
-        <v>286</v>
+      <c r="D21" t="n">
+        <v>830137</v>
       </c>
       <c r="E21" t="n">
         <v>82.18000000000001</v>
       </c>
-      <c r="F21" t="s">
-        <v>287</v>
+      <c r="F21" t="n">
+        <v>881793</v>
       </c>
       <c r="G21" t="n">
         <v>89.47</v>
       </c>
-      <c r="H21" t="s">
-        <v>288</v>
+      <c r="H21" t="n">
+        <v>3746125</v>
       </c>
       <c r="I21" t="n">
         <v>82.31</v>
       </c>
-      <c r="J21" t="s">
-        <v>289</v>
+      <c r="J21" t="n">
+        <v>932059</v>
       </c>
       <c r="K21" t="n">
         <v>78.19</v>
       </c>
-      <c r="L21" t="s">
-        <v>290</v>
+      <c r="L21" t="n">
+        <v>1151011</v>
       </c>
       <c r="M21" t="n">
         <v>77.09</v>
       </c>
-      <c r="N21" t="s">
-        <v>291</v>
+      <c r="N21" t="n">
+        <v>810630</v>
       </c>
       <c r="O21" t="n">
         <v>85.87</v>
       </c>
-      <c r="P21" t="s">
-        <v>292</v>
+      <c r="P21" t="n">
+        <v>4055891</v>
       </c>
       <c r="Q21" t="n">
         <v>81.12</v>
       </c>
-      <c r="R21" t="s">
-        <v>293</v>
+      <c r="R21" t="n">
+        <v>836497</v>
       </c>
       <c r="S21" t="n">
         <v>87.89</v>
       </c>
-      <c r="T21" t="s">
-        <v>294</v>
+      <c r="T21" t="n">
+        <v>1010507</v>
       </c>
       <c r="U21" t="n">
         <v>91.83</v>
       </c>
-      <c r="V21" t="s">
-        <v>295</v>
+      <c r="V21" t="n">
+        <v>1070819</v>
       </c>
       <c r="W21" t="n">
         <v>92.89</v>
       </c>
-      <c r="X21" t="s">
-        <v>296</v>
+      <c r="X21" t="n">
+        <v>3911089</v>
       </c>
       <c r="Y21" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="Z21" t="s">
-        <v>297</v>
+      <c r="Z21" t="n">
+        <v>807187</v>
       </c>
       <c r="AA21" t="n">
         <v>92.14</v>
       </c>
-      <c r="AB21" t="s">
-        <v>298</v>
+      <c r="AB21" t="n">
+        <v>924153</v>
       </c>
       <c r="AC21" t="n">
         <v>81.75</v>
       </c>
-      <c r="AD21" t="s">
-        <v>299</v>
+      <c r="AD21" t="n">
+        <v>883120</v>
       </c>
       <c r="AE21" t="n">
         <v>86.65000000000001</v>
       </c>
-      <c r="AF21" t="s">
-        <v>300</v>
+      <c r="AF21" t="n">
+        <v>3685954</v>
       </c>
       <c r="AG21" t="n">
         <v>84.81</v>
@@ -3621,100 +2430,100 @@
     </row>
     <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" t="s">
-        <v>302</v>
+        <v>52</v>
+      </c>
+      <c r="B22" t="n">
+        <v>916242</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
       </c>
-      <c r="D22" t="s">
-        <v>303</v>
+      <c r="D22" t="n">
+        <v>1010171</v>
       </c>
       <c r="E22" t="n">
         <v>100</v>
       </c>
-      <c r="F22" t="s">
-        <v>304</v>
+      <c r="F22" t="n">
+        <v>985555</v>
       </c>
       <c r="G22" t="n">
         <v>100</v>
       </c>
-      <c r="H22" t="s">
-        <v>305</v>
+      <c r="H22" t="n">
+        <v>4551240</v>
       </c>
       <c r="I22" t="n">
         <v>100</v>
       </c>
-      <c r="J22" t="s">
-        <v>306</v>
+      <c r="J22" t="n">
+        <v>1192024</v>
       </c>
       <c r="K22" t="n">
         <v>100</v>
       </c>
-      <c r="L22" t="s">
-        <v>307</v>
+      <c r="L22" t="n">
+        <v>1493124</v>
       </c>
       <c r="M22" t="n">
         <v>100</v>
       </c>
-      <c r="N22" t="s">
-        <v>308</v>
+      <c r="N22" t="n">
+        <v>944057</v>
       </c>
       <c r="O22" t="n">
         <v>100</v>
       </c>
-      <c r="P22" t="s">
-        <v>309</v>
+      <c r="P22" t="n">
+        <v>5000089</v>
       </c>
       <c r="Q22" t="n">
         <v>100</v>
       </c>
-      <c r="R22" t="s">
-        <v>310</v>
+      <c r="R22" t="n">
+        <v>951789</v>
       </c>
       <c r="S22" t="n">
         <v>100</v>
       </c>
-      <c r="T22" t="s">
-        <v>311</v>
+      <c r="T22" t="n">
+        <v>1100452</v>
       </c>
       <c r="U22" t="n">
         <v>100</v>
       </c>
-      <c r="V22" t="s">
-        <v>312</v>
+      <c r="V22" t="n">
+        <v>1152722</v>
       </c>
       <c r="W22" t="n">
         <v>100</v>
       </c>
-      <c r="X22" t="s">
-        <v>313</v>
+      <c r="X22" t="n">
+        <v>4350645</v>
       </c>
       <c r="Y22" t="n">
         <v>100</v>
       </c>
-      <c r="Z22" t="s">
-        <v>314</v>
+      <c r="Z22" t="n">
+        <v>875999</v>
       </c>
       <c r="AA22" t="n">
         <v>100</v>
       </c>
-      <c r="AB22" t="s">
-        <v>315</v>
+      <c r="AB22" t="n">
+        <v>1130525</v>
       </c>
       <c r="AC22" t="n">
         <v>100</v>
       </c>
-      <c r="AD22" t="s">
-        <v>316</v>
+      <c r="AD22" t="n">
+        <v>1019178</v>
       </c>
       <c r="AE22" t="n">
         <v>100</v>
       </c>
-      <c r="AF22" t="s">
-        <v>317</v>
+      <c r="AF22" t="n">
+        <v>4346147</v>
       </c>
       <c r="AG22" t="n">
         <v>100</v>
@@ -3722,100 +2531,100 @@
     </row>
     <row r="23" spans="1:33">
       <c r="A23" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B23" t="s">
-        <v>319</v>
+        <v>53</v>
+      </c>
+      <c r="B23" t="n">
+        <v>126279</v>
       </c>
       <c r="C23" t="n">
         <v>13.78</v>
       </c>
-      <c r="D23" t="s">
-        <v>320</v>
+      <c r="D23" t="n">
+        <v>180034</v>
       </c>
       <c r="E23" t="n">
         <v>17.82</v>
       </c>
-      <c r="F23" t="s">
-        <v>321</v>
+      <c r="F23" t="n">
+        <v>103762</v>
       </c>
       <c r="G23" t="n">
         <v>10.53</v>
       </c>
-      <c r="H23" t="s">
-        <v>322</v>
+      <c r="H23" t="n">
+        <v>805115</v>
       </c>
       <c r="I23" t="n">
         <v>17.69</v>
       </c>
-      <c r="J23" t="s">
-        <v>323</v>
+      <c r="J23" t="n">
+        <v>259965</v>
       </c>
       <c r="K23" t="n">
         <v>21.81</v>
       </c>
-      <c r="L23" t="s">
-        <v>324</v>
+      <c r="L23" t="n">
+        <v>342113</v>
       </c>
       <c r="M23" t="n">
         <v>22.91</v>
       </c>
-      <c r="N23" t="s">
-        <v>325</v>
+      <c r="N23" t="n">
+        <v>133427</v>
       </c>
       <c r="O23" t="n">
         <v>14.13</v>
       </c>
-      <c r="P23" t="s">
-        <v>326</v>
+      <c r="P23" t="n">
+        <v>944198</v>
       </c>
       <c r="Q23" t="n">
         <v>18.88</v>
       </c>
-      <c r="R23" t="s">
-        <v>327</v>
+      <c r="R23" t="n">
+        <v>115292</v>
       </c>
       <c r="S23" t="n">
         <v>12.11</v>
       </c>
-      <c r="T23" t="s">
-        <v>328</v>
+      <c r="T23" t="n">
+        <v>89945</v>
       </c>
       <c r="U23" t="n">
         <v>8.17</v>
       </c>
-      <c r="V23" t="s">
-        <v>329</v>
+      <c r="V23" t="n">
+        <v>81903</v>
       </c>
       <c r="W23" t="n">
         <v>7.11</v>
       </c>
-      <c r="X23" t="s">
-        <v>330</v>
+      <c r="X23" t="n">
+        <v>439556</v>
       </c>
       <c r="Y23" t="n">
         <v>10.1</v>
       </c>
-      <c r="Z23" t="s">
-        <v>331</v>
+      <c r="Z23" t="n">
+        <v>68812</v>
       </c>
       <c r="AA23" t="n">
         <v>7.86</v>
       </c>
-      <c r="AB23" t="s">
-        <v>332</v>
+      <c r="AB23" t="n">
+        <v>206372</v>
       </c>
       <c r="AC23" t="n">
         <v>18.25</v>
       </c>
-      <c r="AD23" t="s">
-        <v>333</v>
+      <c r="AD23" t="n">
+        <v>136058</v>
       </c>
       <c r="AE23" t="n">
         <v>13.35</v>
       </c>
-      <c r="AF23" t="s">
-        <v>334</v>
+      <c r="AF23" t="n">
+        <v>660193</v>
       </c>
       <c r="AG23" t="n">
         <v>15.19</v>
@@ -3823,100 +2632,100 @@
     </row>
     <row r="24" spans="1:33">
       <c r="A24" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B24" t="s">
-        <v>319</v>
+        <v>54</v>
+      </c>
+      <c r="B24" t="n">
+        <v>126279</v>
       </c>
       <c r="C24" t="n">
         <v>13.78</v>
       </c>
-      <c r="D24" t="s">
-        <v>320</v>
+      <c r="D24" t="n">
+        <v>180034</v>
       </c>
       <c r="E24" t="n">
         <v>17.82</v>
       </c>
-      <c r="F24" t="s">
-        <v>321</v>
+      <c r="F24" t="n">
+        <v>103762</v>
       </c>
       <c r="G24" t="n">
         <v>10.53</v>
       </c>
-      <c r="H24" t="s">
-        <v>322</v>
+      <c r="H24" t="n">
+        <v>805115</v>
       </c>
       <c r="I24" t="n">
         <v>17.69</v>
       </c>
-      <c r="J24" t="s">
-        <v>323</v>
+      <c r="J24" t="n">
+        <v>259965</v>
       </c>
       <c r="K24" t="n">
         <v>21.81</v>
       </c>
-      <c r="L24" t="s">
-        <v>324</v>
+      <c r="L24" t="n">
+        <v>342113</v>
       </c>
       <c r="M24" t="n">
         <v>22.91</v>
       </c>
-      <c r="N24" t="s">
-        <v>325</v>
+      <c r="N24" t="n">
+        <v>133427</v>
       </c>
       <c r="O24" t="n">
         <v>14.13</v>
       </c>
-      <c r="P24" t="s">
-        <v>326</v>
+      <c r="P24" t="n">
+        <v>944198</v>
       </c>
       <c r="Q24" t="n">
         <v>18.88</v>
       </c>
-      <c r="R24" t="s">
-        <v>327</v>
+      <c r="R24" t="n">
+        <v>115292</v>
       </c>
       <c r="S24" t="n">
         <v>12.11</v>
       </c>
-      <c r="T24" t="s">
-        <v>328</v>
+      <c r="T24" t="n">
+        <v>89945</v>
       </c>
       <c r="U24" t="n">
         <v>8.17</v>
       </c>
-      <c r="V24" t="s">
-        <v>329</v>
+      <c r="V24" t="n">
+        <v>81903</v>
       </c>
       <c r="W24" t="n">
         <v>7.11</v>
       </c>
-      <c r="X24" t="s">
-        <v>330</v>
+      <c r="X24" t="n">
+        <v>439556</v>
       </c>
       <c r="Y24" t="n">
         <v>10.1</v>
       </c>
-      <c r="Z24" t="s">
-        <v>331</v>
+      <c r="Z24" t="n">
+        <v>68812</v>
       </c>
       <c r="AA24" t="n">
         <v>7.86</v>
       </c>
-      <c r="AB24" t="s">
-        <v>332</v>
+      <c r="AB24" t="n">
+        <v>206372</v>
       </c>
       <c r="AC24" t="n">
         <v>18.25</v>
       </c>
-      <c r="AD24" t="s">
-        <v>333</v>
+      <c r="AD24" t="n">
+        <v>136058</v>
       </c>
       <c r="AE24" t="n">
         <v>13.35</v>
       </c>
-      <c r="AF24" t="s">
-        <v>334</v>
+      <c r="AF24" t="n">
+        <v>660193</v>
       </c>
       <c r="AG24" t="n">
         <v>15.19</v>
@@ -3924,100 +2733,100 @@
     </row>
     <row r="25" spans="1:33">
       <c r="A25" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B25" t="s">
-        <v>337</v>
+        <v>55</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90360</v>
       </c>
       <c r="C25" t="n">
         <v>9.859999999999999</v>
       </c>
-      <c r="D25" t="s">
-        <v>338</v>
+      <c r="D25" t="n">
+        <v>123367</v>
       </c>
       <c r="E25" t="n">
         <v>12.21</v>
       </c>
-      <c r="F25" t="s">
-        <v>339</v>
+      <c r="F25" t="n">
+        <v>89187</v>
       </c>
       <c r="G25" t="n">
         <v>9.050000000000001</v>
       </c>
-      <c r="H25" t="s">
-        <v>340</v>
+      <c r="H25" t="n">
+        <v>482249</v>
       </c>
       <c r="I25" t="n">
         <v>10.6</v>
       </c>
-      <c r="J25" t="s">
-        <v>341</v>
+      <c r="J25" t="n">
+        <v>118722</v>
       </c>
       <c r="K25" t="n">
         <v>9.960000000000001</v>
       </c>
-      <c r="L25" t="s">
-        <v>342</v>
+      <c r="L25" t="n">
+        <v>139119</v>
       </c>
       <c r="M25" t="n">
         <v>9.32</v>
       </c>
-      <c r="N25" t="s">
-        <v>343</v>
+      <c r="N25" t="n">
+        <v>117544</v>
       </c>
       <c r="O25" t="n">
         <v>12.45</v>
       </c>
-      <c r="P25" t="s">
-        <v>344</v>
+      <c r="P25" t="n">
+        <v>510219</v>
       </c>
       <c r="Q25" t="n">
         <v>10.2</v>
       </c>
-      <c r="R25" t="s">
-        <v>345</v>
+      <c r="R25" t="n">
+        <v>95126</v>
       </c>
       <c r="S25" t="n">
         <v>9.99</v>
       </c>
-      <c r="T25" t="s">
-        <v>346</v>
+      <c r="T25" t="n">
+        <v>95778</v>
       </c>
       <c r="U25" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="V25" t="s">
-        <v>347</v>
+      <c r="V25" t="n">
+        <v>102367</v>
       </c>
       <c r="W25" t="n">
         <v>8.880000000000001</v>
       </c>
-      <c r="X25" t="s">
-        <v>348</v>
+      <c r="X25" t="n">
+        <v>381758</v>
       </c>
       <c r="Y25" t="n">
         <v>8.77</v>
       </c>
-      <c r="Z25" t="s">
-        <v>349</v>
+      <c r="Z25" t="n">
+        <v>95228</v>
       </c>
       <c r="AA25" t="n">
         <v>10.87</v>
       </c>
-      <c r="AB25" t="s">
-        <v>350</v>
+      <c r="AB25" t="n">
+        <v>89084</v>
       </c>
       <c r="AC25" t="n">
         <v>7.88</v>
       </c>
-      <c r="AD25" t="s">
-        <v>351</v>
+      <c r="AD25" t="n">
+        <v>84094</v>
       </c>
       <c r="AE25" t="n">
         <v>8.25</v>
       </c>
-      <c r="AF25" t="s">
-        <v>352</v>
+      <c r="AF25" t="n">
+        <v>363498</v>
       </c>
       <c r="AG25" t="n">
         <v>8.359999999999999</v>
@@ -4025,7 +2834,7 @@
     </row>
     <row r="26" spans="1:33">
       <c r="A26" s="1" t="s">
-        <v>353</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="s"/>
@@ -4033,8 +2842,8 @@
       <c r="E26" t="s"/>
       <c r="F26" t="s"/>
       <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>354</v>
+      <c r="H26" t="n">
+        <v>-42341</v>
       </c>
       <c r="I26" t="n">
         <v>-0.93</v>
@@ -4043,14 +2852,14 @@
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
       <c r="M26" t="s"/>
-      <c r="N26" t="s">
-        <v>33</v>
+      <c r="N26" t="n">
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="s">
-        <v>355</v>
+      <c r="P26" t="n">
+        <v>-5330</v>
       </c>
       <c r="Q26" t="n">
         <v>-0.11</v>
@@ -4061,8 +2870,8 @@
       <c r="U26" t="s"/>
       <c r="V26" t="s"/>
       <c r="W26" t="s"/>
-      <c r="X26" t="s">
-        <v>356</v>
+      <c r="X26" t="n">
+        <v>-9869</v>
       </c>
       <c r="Y26" t="n">
         <v>-0.23</v>
@@ -4073,8 +2882,8 @@
       <c r="AC26" t="s"/>
       <c r="AD26" t="s"/>
       <c r="AE26" t="s"/>
-      <c r="AF26" t="s">
-        <v>357</v>
+      <c r="AF26" t="n">
+        <v>-9191</v>
       </c>
       <c r="AG26" t="n">
         <v>-0.21</v>
@@ -4082,169 +2891,169 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B27" t="s">
-        <v>121</v>
+        <v>57</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.09</v>
       </c>
       <c r="C27" t="s"/>
-      <c r="D27" t="s">
-        <v>122</v>
+      <c r="D27" t="n">
+        <v>0.16</v>
       </c>
       <c r="E27" t="s"/>
-      <c r="F27" t="s">
-        <v>123</v>
+      <c r="F27" t="n">
+        <v>0.05</v>
       </c>
       <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>124</v>
+      <c r="H27" t="n">
+        <v>0.65</v>
       </c>
       <c r="I27" t="s"/>
-      <c r="J27" t="s">
-        <v>125</v>
+      <c r="J27" t="n">
+        <v>0.2</v>
       </c>
       <c r="K27" t="s"/>
-      <c r="L27" t="s">
-        <v>126</v>
+      <c r="L27" t="n">
+        <v>0.26</v>
       </c>
       <c r="M27" t="s"/>
-      <c r="N27" t="s">
-        <v>127</v>
+      <c r="N27" t="n">
+        <v>0.08</v>
       </c>
       <c r="O27" t="s"/>
-      <c r="P27" t="s">
-        <v>128</v>
+      <c r="P27" t="n">
+        <v>0.67</v>
       </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s">
-        <v>129</v>
+      <c r="R27" t="n">
+        <v>0.02</v>
       </c>
       <c r="S27" t="s"/>
-      <c r="T27" t="s">
-        <v>130</v>
+      <c r="T27" t="n">
+        <v>-0.03</v>
       </c>
       <c r="U27" t="s"/>
-      <c r="V27" t="s">
-        <v>131</v>
+      <c r="V27" t="n">
+        <v>-0.08</v>
       </c>
       <c r="W27" t="s"/>
-      <c r="X27" t="s">
-        <v>132</v>
+      <c r="X27" t="n">
+        <v>0.04</v>
       </c>
       <c r="Y27" t="s"/>
-      <c r="Z27" t="s">
-        <v>130</v>
+      <c r="Z27" t="n">
+        <v>-0.03</v>
       </c>
       <c r="AA27" t="s"/>
-      <c r="AB27" t="s">
-        <v>133</v>
+      <c r="AB27" t="n">
+        <v>0.17</v>
       </c>
       <c r="AC27" t="s"/>
-      <c r="AD27" t="s">
-        <v>127</v>
+      <c r="AD27" t="n">
+        <v>0.08</v>
       </c>
       <c r="AE27" t="s"/>
-      <c r="AF27" t="s">
-        <v>134</v>
+      <c r="AF27" t="n">
+        <v>0.42</v>
       </c>
       <c r="AG27" t="s"/>
     </row>
     <row r="28" spans="1:33">
       <c r="A28" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B28" t="s">
-        <v>360</v>
+        <v>58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>43634</v>
       </c>
       <c r="C28" t="n">
         <v>4.76</v>
       </c>
-      <c r="D28" t="s">
-        <v>361</v>
+      <c r="D28" t="n">
+        <v>81036</v>
       </c>
       <c r="E28" t="n">
         <v>8.02</v>
       </c>
-      <c r="F28" t="s">
-        <v>362</v>
+      <c r="F28" t="n">
+        <v>20173</v>
       </c>
       <c r="G28" t="n">
         <v>2.05</v>
       </c>
-      <c r="H28" t="s">
-        <v>363</v>
+      <c r="H28" t="n">
+        <v>371025</v>
       </c>
       <c r="I28" t="n">
         <v>8.15</v>
       </c>
-      <c r="J28" t="s">
-        <v>364</v>
+      <c r="J28" t="n">
+        <v>135997</v>
       </c>
       <c r="K28" t="n">
         <v>11.41</v>
       </c>
-      <c r="L28" t="s">
-        <v>365</v>
+      <c r="L28" t="n">
+        <v>196912</v>
       </c>
       <c r="M28" t="n">
         <v>13.19</v>
       </c>
-      <c r="N28" t="s">
-        <v>366</v>
+      <c r="N28" t="n">
+        <v>23706</v>
       </c>
       <c r="O28" t="n">
         <v>2.51</v>
       </c>
-      <c r="P28" t="s">
-        <v>367</v>
+      <c r="P28" t="n">
+        <v>426820</v>
       </c>
       <c r="Q28" t="n">
         <v>8.539999999999999</v>
       </c>
-      <c r="R28" t="s">
-        <v>368</v>
+      <c r="R28" t="n">
+        <v>7834</v>
       </c>
       <c r="S28" t="n">
         <v>0.82</v>
       </c>
-      <c r="T28" t="s">
-        <v>369</v>
+      <c r="T28" t="n">
+        <v>-2409</v>
       </c>
       <c r="U28" t="n">
         <v>-0.22</v>
       </c>
-      <c r="V28" t="s">
-        <v>370</v>
+      <c r="V28" t="n">
+        <v>-59787</v>
       </c>
       <c r="W28" t="n">
         <v>-5.19</v>
       </c>
-      <c r="X28" t="s">
-        <v>371</v>
+      <c r="X28" t="n">
+        <v>11055</v>
       </c>
       <c r="Y28" t="n">
         <v>0.25</v>
       </c>
-      <c r="Z28" t="s">
-        <v>372</v>
+      <c r="Z28" t="n">
+        <v>-26578</v>
       </c>
       <c r="AA28" t="n">
         <v>-3.03</v>
       </c>
-      <c r="AB28" t="s">
-        <v>373</v>
+      <c r="AB28" t="n">
+        <v>85636</v>
       </c>
       <c r="AC28" t="n">
         <v>7.57</v>
       </c>
-      <c r="AD28" t="s">
-        <v>374</v>
+      <c r="AD28" t="n">
+        <v>39677</v>
       </c>
       <c r="AE28" t="n">
         <v>3.89</v>
       </c>
-      <c r="AF28" t="s">
-        <v>375</v>
+      <c r="AF28" t="n">
+        <v>209377</v>
       </c>
       <c r="AG28" t="n">
         <v>4.82</v>
@@ -4252,100 +3061,100 @@
     </row>
     <row r="29" spans="1:33">
       <c r="A29" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B29" t="s">
-        <v>377</v>
+        <v>59</v>
+      </c>
+      <c r="B29" t="n">
+        <v>39050</v>
       </c>
       <c r="C29" t="n">
         <v>4.26</v>
       </c>
-      <c r="D29" t="s">
-        <v>378</v>
+      <c r="D29" t="n">
+        <v>44004</v>
       </c>
       <c r="E29" t="n">
         <v>4.36</v>
       </c>
-      <c r="F29" t="s">
-        <v>379</v>
+      <c r="F29" t="n">
+        <v>42149</v>
       </c>
       <c r="G29" t="n">
         <v>4.28</v>
       </c>
-      <c r="H29" t="s">
-        <v>380</v>
+      <c r="H29" t="n">
+        <v>190025</v>
       </c>
       <c r="I29" t="n">
         <v>4.18</v>
       </c>
-      <c r="J29" t="s">
-        <v>381</v>
+      <c r="J29" t="n">
+        <v>67414</v>
       </c>
       <c r="K29" t="n">
         <v>5.66</v>
       </c>
-      <c r="L29" t="s">
-        <v>382</v>
+      <c r="L29" t="n">
+        <v>75334</v>
       </c>
       <c r="M29" t="n">
         <v>5.05</v>
       </c>
-      <c r="N29" t="s">
-        <v>383</v>
+      <c r="N29" t="n">
+        <v>61162</v>
       </c>
       <c r="O29" t="n">
         <v>6.48</v>
       </c>
-      <c r="P29" t="s">
-        <v>384</v>
+      <c r="P29" t="n">
+        <v>283121</v>
       </c>
       <c r="Q29" t="n">
         <v>5.66</v>
       </c>
-      <c r="R29" t="s">
-        <v>385</v>
+      <c r="R29" t="n">
+        <v>53238</v>
       </c>
       <c r="S29" t="n">
         <v>5.59</v>
       </c>
-      <c r="T29" t="s">
-        <v>386</v>
+      <c r="T29" t="n">
+        <v>51944</v>
       </c>
       <c r="U29" t="n">
         <v>4.72</v>
       </c>
-      <c r="V29" t="s">
-        <v>387</v>
+      <c r="V29" t="n">
+        <v>53845</v>
       </c>
       <c r="W29" t="n">
         <v>4.67</v>
       </c>
-      <c r="X29" t="s">
-        <v>388</v>
+      <c r="X29" t="n">
+        <v>203172</v>
       </c>
       <c r="Y29" t="n">
         <v>4.67</v>
       </c>
-      <c r="Z29" t="s">
-        <v>389</v>
+      <c r="Z29" t="n">
+        <v>53652</v>
       </c>
       <c r="AA29" t="n">
         <v>6.12</v>
       </c>
-      <c r="AB29" t="s">
-        <v>390</v>
+      <c r="AB29" t="n">
+        <v>45167</v>
       </c>
       <c r="AC29" t="n">
         <v>4</v>
       </c>
-      <c r="AD29" t="s">
-        <v>391</v>
+      <c r="AD29" t="n">
+        <v>46953</v>
       </c>
       <c r="AE29" t="n">
         <v>4.61</v>
       </c>
-      <c r="AF29" t="s">
-        <v>392</v>
+      <c r="AF29" t="n">
+        <v>200941</v>
       </c>
       <c r="AG29" t="n">
         <v>4.62</v>
@@ -4353,100 +3162,100 @@
     </row>
     <row r="30" spans="1:33">
       <c r="A30" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B30" t="s">
-        <v>183</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="n">
+        <v>35090</v>
       </c>
       <c r="C30" t="n">
         <v>3.83</v>
       </c>
-      <c r="D30" t="s">
-        <v>184</v>
+      <c r="D30" t="n">
+        <v>71699</v>
       </c>
       <c r="E30" t="n">
         <v>7.1</v>
       </c>
-      <c r="F30" t="s">
-        <v>185</v>
+      <c r="F30" t="n">
+        <v>14151</v>
       </c>
       <c r="G30" t="n">
         <v>1.44</v>
       </c>
-      <c r="H30" t="s">
-        <v>186</v>
+      <c r="H30" t="n">
+        <v>322700</v>
       </c>
       <c r="I30" t="n">
         <v>7.09</v>
       </c>
-      <c r="J30" t="s">
-        <v>187</v>
+      <c r="J30" t="n">
+        <v>107003</v>
       </c>
       <c r="K30" t="n">
         <v>8.98</v>
       </c>
-      <c r="L30" t="s">
-        <v>188</v>
+      <c r="L30" t="n">
+        <v>145231</v>
       </c>
       <c r="M30" t="n">
         <v>9.73</v>
       </c>
-      <c r="N30" t="s">
-        <v>189</v>
+      <c r="N30" t="n">
+        <v>23008</v>
       </c>
       <c r="O30" t="n">
         <v>2.44</v>
       </c>
-      <c r="P30" t="s">
-        <v>190</v>
+      <c r="P30" t="n">
+        <v>336764</v>
       </c>
       <c r="Q30" t="n">
         <v>6.74</v>
       </c>
-      <c r="R30" t="s">
-        <v>191</v>
+      <c r="R30" t="n">
+        <v>1507</v>
       </c>
       <c r="S30" t="n">
         <v>0.16</v>
       </c>
-      <c r="T30" t="s">
-        <v>192</v>
+      <c r="T30" t="n">
+        <v>-30732</v>
       </c>
       <c r="U30" t="n">
         <v>-2.79</v>
       </c>
-      <c r="V30" t="s">
-        <v>193</v>
+      <c r="V30" t="n">
+        <v>-72270</v>
       </c>
       <c r="W30" t="n">
         <v>-6.27</v>
       </c>
-      <c r="X30" t="s">
-        <v>194</v>
+      <c r="X30" t="n">
+        <v>-57407</v>
       </c>
       <c r="Y30" t="n">
         <v>-1.32</v>
       </c>
-      <c r="Z30" t="s">
-        <v>195</v>
+      <c r="Z30" t="n">
+        <v>-33204</v>
       </c>
       <c r="AA30" t="n">
         <v>-3.79</v>
       </c>
-      <c r="AB30" t="s">
-        <v>196</v>
+      <c r="AB30" t="n">
+        <v>77164</v>
       </c>
       <c r="AC30" t="n">
         <v>6.83</v>
       </c>
-      <c r="AD30" t="s">
-        <v>197</v>
+      <c r="AD30" t="n">
+        <v>32507</v>
       </c>
       <c r="AE30" t="n">
         <v>3.19</v>
       </c>
-      <c r="AF30" t="s">
-        <v>198</v>
+      <c r="AF30" t="n">
+        <v>177671</v>
       </c>
       <c r="AG30" t="n">
         <v>4.09</v>
@@ -4454,7 +3263,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="1" t="s">
-        <v>394</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="s"/>
@@ -4478,8 +3287,8 @@
       <c r="U31" t="s"/>
       <c r="V31" t="s"/>
       <c r="W31" t="s"/>
-      <c r="X31" t="s">
-        <v>395</v>
+      <c r="X31" t="n">
+        <v>-1677</v>
       </c>
       <c r="Y31" t="n">
         <v>-0.04</v>
@@ -4490,8 +3299,8 @@
       <c r="AC31" t="s"/>
       <c r="AD31" t="s"/>
       <c r="AE31" t="s"/>
-      <c r="AF31" t="s">
-        <v>396</v>
+      <c r="AF31" t="n">
+        <v>-1563</v>
       </c>
       <c r="AG31" t="n">
         <v>-0.04</v>
@@ -4499,48 +3308,48 @@
     </row>
     <row r="32" spans="1:33">
       <c r="A32" s="1" t="s">
-        <v>397</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="s"/>
-      <c r="D32" t="s">
-        <v>398</v>
+      <c r="D32" t="n">
+        <v>-1495</v>
       </c>
       <c r="E32" t="n">
         <v>-0.15</v>
       </c>
-      <c r="F32" t="s">
-        <v>399</v>
+      <c r="F32" t="n">
+        <v>34</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="s">
-        <v>400</v>
+      <c r="H32" t="n">
+        <v>-7322</v>
       </c>
       <c r="I32" t="n">
         <v>-0.16</v>
       </c>
-      <c r="J32" t="s">
-        <v>401</v>
+      <c r="J32" t="n">
+        <v>656</v>
       </c>
       <c r="K32" t="n">
         <v>0.06</v>
       </c>
-      <c r="L32" t="s">
-        <v>402</v>
+      <c r="L32" t="n">
+        <v>-55</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
-      <c r="N32" t="s">
-        <v>403</v>
+      <c r="N32" t="n">
+        <v>-516</v>
       </c>
       <c r="O32" t="n">
         <v>-0.05</v>
       </c>
-      <c r="P32" t="s">
-        <v>404</v>
+      <c r="P32" t="n">
+        <v>-994</v>
       </c>
       <c r="Q32" t="n">
         <v>-0.02</v>
@@ -4564,7 +3373,7 @@
     </row>
     <row r="33" spans="1:33">
       <c r="A33" s="1" t="s">
-        <v>405</v>
+        <v>63</v>
       </c>
       <c r="B33" t="s"/>
       <c r="C33" t="s"/>
@@ -4582,50 +3391,50 @@
       <c r="O33" t="s"/>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s">
-        <v>406</v>
+      <c r="R33" t="n">
+        <v>-111</v>
       </c>
       <c r="S33" t="n">
         <v>-0.01</v>
       </c>
-      <c r="T33" t="s">
-        <v>407</v>
+      <c r="T33" t="n">
+        <v>-261</v>
       </c>
       <c r="U33" t="n">
         <v>-0.02</v>
       </c>
-      <c r="V33" t="s">
-        <v>408</v>
+      <c r="V33" t="n">
+        <v>-433</v>
       </c>
       <c r="W33" t="n">
         <v>-0.04</v>
       </c>
-      <c r="X33" t="s">
-        <v>409</v>
+      <c r="X33" t="n">
+        <v>-825</v>
       </c>
       <c r="Y33" t="n">
         <v>-0.02</v>
       </c>
-      <c r="Z33" t="s">
-        <v>410</v>
+      <c r="Z33" t="n">
+        <v>-12</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
-      <c r="AB33" t="s">
-        <v>411</v>
+      <c r="AB33" t="n">
+        <v>243</v>
       </c>
       <c r="AC33" t="n">
         <v>0.02</v>
       </c>
-      <c r="AD33" t="s">
-        <v>412</v>
+      <c r="AD33" t="n">
+        <v>269</v>
       </c>
       <c r="AE33" t="n">
         <v>0.03</v>
       </c>
-      <c r="AF33" t="s">
-        <v>413</v>
+      <c r="AF33" t="n">
+        <v>684</v>
       </c>
       <c r="AG33" t="n">
         <v>0.02</v>
@@ -4633,100 +3442,100 @@
     </row>
     <row r="34" spans="1:33">
       <c r="A34" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B34" t="s">
-        <v>415</v>
+        <v>64</v>
+      </c>
+      <c r="B34" t="n">
+        <v>9926</v>
       </c>
       <c r="C34" t="n">
         <v>1.08</v>
       </c>
-      <c r="D34" t="s">
-        <v>416</v>
+      <c r="D34" t="n">
+        <v>7420</v>
       </c>
       <c r="E34" t="n">
         <v>0.73</v>
       </c>
-      <c r="F34" t="s">
-        <v>417</v>
+      <c r="F34" t="n">
+        <v>8311</v>
       </c>
       <c r="G34" t="n">
         <v>0.84</v>
       </c>
-      <c r="H34" t="s">
-        <v>418</v>
+      <c r="H34" t="n">
+        <v>37923</v>
       </c>
       <c r="I34" t="n">
         <v>0.83</v>
       </c>
-      <c r="J34" t="s">
-        <v>419</v>
+      <c r="J34" t="n">
+        <v>10592</v>
       </c>
       <c r="K34" t="n">
         <v>0.89</v>
       </c>
-      <c r="L34" t="s">
-        <v>420</v>
+      <c r="L34" t="n">
+        <v>12501</v>
       </c>
       <c r="M34" t="n">
         <v>0.84</v>
       </c>
-      <c r="N34" t="s">
-        <v>421</v>
+      <c r="N34" t="n">
+        <v>7984</v>
       </c>
       <c r="O34" t="n">
         <v>0.85</v>
       </c>
-      <c r="P34" t="s">
-        <v>422</v>
+      <c r="P34" t="n">
+        <v>38317</v>
       </c>
       <c r="Q34" t="n">
         <v>0.77</v>
       </c>
-      <c r="R34" t="s">
-        <v>423</v>
+      <c r="R34" t="n">
+        <v>6515</v>
       </c>
       <c r="S34" t="n">
         <v>0.68</v>
       </c>
-      <c r="T34" t="s">
-        <v>424</v>
+      <c r="T34" t="n">
+        <v>5310</v>
       </c>
       <c r="U34" t="n">
         <v>0.48</v>
       </c>
-      <c r="V34" t="s">
-        <v>425</v>
+      <c r="V34" t="n">
+        <v>5757</v>
       </c>
       <c r="W34" t="n">
         <v>0.5</v>
       </c>
-      <c r="X34" t="s">
-        <v>426</v>
+      <c r="X34" t="n">
+        <v>24906</v>
       </c>
       <c r="Y34" t="n">
         <v>0.57</v>
       </c>
-      <c r="Z34" t="s">
-        <v>427</v>
+      <c r="Z34" t="n">
+        <v>6863</v>
       </c>
       <c r="AA34" t="n">
         <v>0.78</v>
       </c>
-      <c r="AB34" t="s">
-        <v>428</v>
+      <c r="AB34" t="n">
+        <v>7163</v>
       </c>
       <c r="AC34" t="n">
         <v>0.63</v>
       </c>
-      <c r="AD34" t="s">
-        <v>429</v>
+      <c r="AD34" t="n">
+        <v>7310</v>
       </c>
       <c r="AE34" t="n">
         <v>0.72</v>
       </c>
-      <c r="AF34" t="s">
-        <v>430</v>
+      <c r="AF34" t="n">
+        <v>30050</v>
       </c>
       <c r="AG34" t="n">
         <v>0.6899999999999999</v>
@@ -4734,7 +3543,7 @@
     </row>
     <row r="35" spans="1:33">
       <c r="A35" s="1" t="s">
-        <v>431</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s"/>
       <c r="C35" t="s"/>
@@ -4764,14 +3573,14 @@
       <c r="AA35" t="s"/>
       <c r="AB35" t="s"/>
       <c r="AC35" t="s"/>
-      <c r="AD35" t="s">
-        <v>316</v>
+      <c r="AD35" t="n">
+        <v>1019178</v>
       </c>
       <c r="AE35" t="n">
         <v>100</v>
       </c>
-      <c r="AF35" t="s">
-        <v>317</v>
+      <c r="AF35" t="n">
+        <v>4346147</v>
       </c>
       <c r="AG35" t="n">
         <v>100</v>
@@ -4779,100 +3588,100 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B36" t="s">
-        <v>433</v>
+        <v>66</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-2576</v>
       </c>
       <c r="C36" t="n">
         <v>-0.28</v>
       </c>
-      <c r="D36" t="s">
-        <v>434</v>
+      <c r="D36" t="n">
+        <v>2780</v>
       </c>
       <c r="E36" t="n">
         <v>0.28</v>
       </c>
-      <c r="F36" t="s">
-        <v>435</v>
+      <c r="F36" t="n">
+        <v>-6921</v>
       </c>
       <c r="G36" t="n">
         <v>-0.7</v>
       </c>
-      <c r="H36" t="s">
-        <v>436</v>
+      <c r="H36" t="n">
+        <v>48168</v>
       </c>
       <c r="I36" t="n">
         <v>1.06</v>
       </c>
-      <c r="J36" t="s">
-        <v>437</v>
+      <c r="J36" t="n">
+        <v>21283</v>
       </c>
       <c r="K36" t="n">
         <v>1.79</v>
       </c>
-      <c r="L36" t="s">
-        <v>438</v>
+      <c r="L36" t="n">
+        <v>33734</v>
       </c>
       <c r="M36" t="n">
         <v>2.26</v>
       </c>
-      <c r="N36" t="s">
-        <v>439</v>
+      <c r="N36" t="n">
+        <v>-10441</v>
       </c>
       <c r="O36" t="n">
         <v>-1.11</v>
       </c>
-      <c r="P36" t="s">
-        <v>440</v>
+      <c r="P36" t="n">
+        <v>53224</v>
       </c>
       <c r="Q36" t="n">
         <v>1.06</v>
       </c>
-      <c r="R36" t="s">
-        <v>441</v>
+      <c r="R36" t="n">
+        <v>-8995</v>
       </c>
       <c r="S36" t="n">
         <v>-0.95</v>
       </c>
-      <c r="T36" t="s">
-        <v>442</v>
+      <c r="T36" t="n">
+        <v>-16706</v>
       </c>
       <c r="U36" t="n">
         <v>-1.52</v>
       </c>
-      <c r="V36" t="s">
-        <v>443</v>
+      <c r="V36" t="n">
+        <v>-39840</v>
       </c>
       <c r="W36" t="n">
         <v>-3.46</v>
       </c>
-      <c r="X36" t="s">
-        <v>444</v>
+      <c r="X36" t="n">
+        <v>-75384</v>
       </c>
       <c r="Y36" t="n">
         <v>-1.73</v>
       </c>
-      <c r="Z36" t="s">
-        <v>445</v>
+      <c r="Z36" t="n">
+        <v>-21622</v>
       </c>
       <c r="AA36" t="n">
         <v>-2.47</v>
       </c>
-      <c r="AB36" t="s">
-        <v>446</v>
+      <c r="AB36" t="n">
+        <v>12514</v>
       </c>
       <c r="AC36" t="n">
         <v>1.11</v>
       </c>
-      <c r="AD36" t="s">
-        <v>447</v>
+      <c r="AD36" t="n">
+        <v>1981</v>
       </c>
       <c r="AE36" t="n">
         <v>0.19</v>
       </c>
-      <c r="AF36" t="s">
-        <v>448</v>
+      <c r="AF36" t="n">
+        <v>16654</v>
       </c>
       <c r="AG36" t="n">
         <v>0.38</v>
@@ -4880,100 +3689,100 @@
     </row>
     <row r="37" spans="1:33">
       <c r="A37" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B37" t="s">
-        <v>433</v>
+        <v>67</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-2576</v>
       </c>
       <c r="C37" t="n">
         <v>-0.28</v>
       </c>
-      <c r="D37" t="s">
-        <v>450</v>
+      <c r="D37" t="n">
+        <v>15688</v>
       </c>
       <c r="E37" t="n">
         <v>1.55</v>
       </c>
-      <c r="F37" t="s">
-        <v>451</v>
+      <c r="F37" t="n">
+        <v>-15587</v>
       </c>
       <c r="G37" t="n">
         <v>-1.58</v>
       </c>
-      <c r="H37" t="s">
-        <v>452</v>
+      <c r="H37" t="n">
+        <v>93552</v>
       </c>
       <c r="I37" t="n">
         <v>2.06</v>
       </c>
-      <c r="J37" t="s">
-        <v>453</v>
+      <c r="J37" t="n">
+        <v>17804</v>
       </c>
       <c r="K37" t="n">
         <v>1.49</v>
       </c>
-      <c r="L37" t="s">
-        <v>454</v>
+      <c r="L37" t="n">
+        <v>18114</v>
       </c>
       <c r="M37" t="n">
         <v>1.21</v>
       </c>
-      <c r="N37" t="s">
-        <v>455</v>
+      <c r="N37" t="n">
+        <v>11650</v>
       </c>
       <c r="O37" t="n">
         <v>1.23</v>
       </c>
-      <c r="P37" t="s">
-        <v>456</v>
+      <c r="P37" t="n">
+        <v>84000</v>
       </c>
       <c r="Q37" t="n">
         <v>1.68</v>
       </c>
-      <c r="R37" t="s">
-        <v>457</v>
+      <c r="R37" t="n">
+        <v>-17535</v>
       </c>
       <c r="S37" t="n">
         <v>-1.84</v>
       </c>
-      <c r="T37" t="s">
-        <v>458</v>
+      <c r="T37" t="n">
+        <v>-28882</v>
       </c>
       <c r="U37" t="n">
         <v>-2.62</v>
       </c>
-      <c r="V37" t="s">
-        <v>459</v>
+      <c r="V37" t="n">
+        <v>-6616</v>
       </c>
       <c r="W37" t="n">
         <v>-0.57</v>
       </c>
-      <c r="X37" t="s">
-        <v>460</v>
+      <c r="X37" t="n">
+        <v>-91103</v>
       </c>
       <c r="Y37" t="n">
         <v>-2.09</v>
       </c>
-      <c r="Z37" t="s">
-        <v>461</v>
+      <c r="Z37" t="n">
+        <v>-24973</v>
       </c>
       <c r="AA37" t="n">
         <v>-2.85</v>
       </c>
-      <c r="AB37" t="s">
-        <v>462</v>
+      <c r="AB37" t="n">
+        <v>-7765</v>
       </c>
       <c r="AC37" t="n">
         <v>-0.6899999999999999</v>
       </c>
-      <c r="AD37" t="s">
-        <v>463</v>
+      <c r="AD37" t="n">
+        <v>-22311</v>
       </c>
       <c r="AE37" t="n">
         <v>-2.19</v>
       </c>
-      <c r="AF37" t="s">
-        <v>464</v>
+      <c r="AF37" t="n">
+        <v>-44980</v>
       </c>
       <c r="AG37" t="n">
         <v>-1.03</v>
